--- a/course_materials/GDP.xlsx
+++ b/course_materials/GDP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlang/Cursor/macroeconomics-course-website/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0474CFE-2AD8-2842-B2F4-A001F2D84F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B5C1A-6A12-7D42-A7AE-6DA6B5CC541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35140" yWindow="980" windowWidth="45160" windowHeight="16940" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
+    <workbookView xWindow="2260" yWindow="1540" windowWidth="29120" windowHeight="18880" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Nominal GDP" sheetId="4" r:id="rId1"/>
     <sheet name="Real GDP" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="339">
   <si>
     <t>1947Q1</t>
   </si>
@@ -1428,15 +1428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E0E7F-AFBF-8043-8218-597DCDC29649}">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -1450,19 +1450,16 @@
         <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1476,19 +1473,16 @@
         <v>35854</v>
       </c>
       <c r="E2" s="1">
-        <v>10875</v>
+        <v>18394</v>
       </c>
       <c r="F2" s="1">
-        <v>18394</v>
+        <v>-7519</v>
       </c>
       <c r="G2" s="1">
-        <v>7519</v>
-      </c>
-      <c r="H2" s="1">
         <v>40274</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1502,19 +1496,16 @@
         <v>34505</v>
       </c>
       <c r="E3" s="1">
-        <v>11294</v>
+        <v>19497</v>
       </c>
       <c r="F3" s="1">
-        <v>19497</v>
+        <v>-8203</v>
       </c>
       <c r="G3" s="1">
-        <v>8203</v>
-      </c>
-      <c r="H3" s="1">
         <v>40138</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1528,19 +1519,16 @@
         <v>34911</v>
       </c>
       <c r="E4" s="1">
-        <v>11770</v>
+        <v>19433</v>
       </c>
       <c r="F4" s="1">
-        <v>19433</v>
+        <v>-7663</v>
       </c>
       <c r="G4" s="1">
-        <v>7663</v>
-      </c>
-      <c r="H4" s="1">
         <v>39361</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1554,19 +1542,16 @@
         <v>43250</v>
       </c>
       <c r="E5" s="1">
-        <v>9289</v>
+        <v>17636</v>
       </c>
       <c r="F5" s="1">
-        <v>17636</v>
+        <v>-8347</v>
       </c>
       <c r="G5" s="1">
-        <v>8347</v>
-      </c>
-      <c r="H5" s="1">
         <v>39534</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1580,19 +1565,16 @@
         <v>47202</v>
       </c>
       <c r="E6" s="1">
-        <v>7293</v>
+        <v>16917</v>
       </c>
       <c r="F6" s="1">
-        <v>16917</v>
+        <v>-9624</v>
       </c>
       <c r="G6" s="1">
-        <v>9624</v>
-      </c>
-      <c r="H6" s="1">
         <v>40875</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1606,19 +1588,16 @@
         <v>50336</v>
       </c>
       <c r="E7" s="1">
-        <v>5205</v>
+        <v>15241</v>
       </c>
       <c r="F7" s="1">
-        <v>15241</v>
+        <v>-10036</v>
       </c>
       <c r="G7" s="1">
-        <v>10036</v>
-      </c>
-      <c r="H7" s="1">
         <v>42884</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1632,19 +1611,16 @@
         <v>52516</v>
       </c>
       <c r="E8" s="1">
-        <v>4949</v>
+        <v>15405</v>
       </c>
       <c r="F8" s="1">
-        <v>15405</v>
+        <v>-10456</v>
       </c>
       <c r="G8" s="1">
-        <v>10456</v>
-      </c>
-      <c r="H8" s="1">
         <v>44660</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1658,19 +1634,16 @@
         <v>51334</v>
       </c>
       <c r="E9" s="1">
-        <v>4501</v>
+        <v>14625</v>
       </c>
       <c r="F9" s="1">
-        <v>14625</v>
+        <v>-10124</v>
       </c>
       <c r="G9" s="1">
-        <v>10124</v>
-      </c>
-      <c r="H9" s="1">
         <v>46603</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1684,19 +1657,16 @@
         <v>43140</v>
       </c>
       <c r="E10" s="1">
-        <v>6478</v>
+        <v>16082</v>
       </c>
       <c r="F10" s="1">
-        <v>16082</v>
+        <v>-9604</v>
       </c>
       <c r="G10" s="1">
-        <v>9604</v>
-      </c>
-      <c r="H10" s="1">
         <v>48585</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1710,19 +1680,16 @@
         <v>36241</v>
       </c>
       <c r="E11" s="1">
-        <v>6283</v>
+        <v>15647</v>
       </c>
       <c r="F11" s="1">
-        <v>15647</v>
+        <v>-9364</v>
       </c>
       <c r="G11" s="1">
-        <v>9364</v>
-      </c>
-      <c r="H11" s="1">
         <v>50381</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1736,19 +1703,16 @@
         <v>39549</v>
       </c>
       <c r="E12" s="1">
-        <v>5179</v>
+        <v>14115</v>
       </c>
       <c r="F12" s="1">
-        <v>14115</v>
+        <v>-8936</v>
       </c>
       <c r="G12" s="1">
-        <v>8936</v>
-      </c>
-      <c r="H12" s="1">
         <v>50356</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1762,19 +1726,16 @@
         <v>37468</v>
       </c>
       <c r="E13" s="1">
-        <v>2999</v>
+        <v>12091</v>
       </c>
       <c r="F13" s="1">
-        <v>12091</v>
+        <v>-9092</v>
       </c>
       <c r="G13" s="1">
-        <v>9092</v>
-      </c>
-      <c r="H13" s="1">
         <v>49910</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1788,19 +1749,16 @@
         <v>46749</v>
       </c>
       <c r="E14" s="1">
-        <v>2203</v>
+        <v>11704</v>
       </c>
       <c r="F14" s="1">
-        <v>11704</v>
+        <v>-9501</v>
       </c>
       <c r="G14" s="1">
-        <v>9501</v>
-      </c>
-      <c r="H14" s="1">
         <v>48956</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1814,19 +1772,16 @@
         <v>52291</v>
       </c>
       <c r="E15" s="1">
-        <v>1643</v>
+        <v>11872</v>
       </c>
       <c r="F15" s="1">
-        <v>11872</v>
+        <v>-10229</v>
       </c>
       <c r="G15" s="1">
-        <v>10229</v>
-      </c>
-      <c r="H15" s="1">
         <v>49643</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1840,19 +1795,16 @@
         <v>58641</v>
       </c>
       <c r="E16" s="1">
-        <v>-740</v>
+        <v>12293</v>
       </c>
       <c r="F16" s="1">
-        <v>12293</v>
+        <v>-13033</v>
       </c>
       <c r="G16" s="1">
-        <v>13033</v>
-      </c>
-      <c r="H16" s="1">
         <v>49746</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1866,19 +1818,16 @@
         <v>68441</v>
       </c>
       <c r="E17" s="1">
-        <v>-154</v>
+        <v>13531</v>
       </c>
       <c r="F17" s="1">
-        <v>13531</v>
+        <v>-13685</v>
       </c>
       <c r="G17" s="1">
-        <v>13685</v>
-      </c>
-      <c r="H17" s="1">
         <v>53713</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1892,19 +1841,16 @@
         <v>64582</v>
       </c>
       <c r="E18" s="1">
-        <v>177</v>
+        <v>15043</v>
       </c>
       <c r="F18" s="1">
-        <v>15043</v>
+        <v>-14866</v>
       </c>
       <c r="G18" s="1">
-        <v>14866</v>
-      </c>
-      <c r="H18" s="1">
         <v>62033</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1918,19 +1864,16 @@
         <v>67383</v>
       </c>
       <c r="E19" s="1">
-        <v>1943</v>
+        <v>17121</v>
       </c>
       <c r="F19" s="1">
-        <v>17121</v>
+        <v>-15178</v>
       </c>
       <c r="G19" s="1">
-        <v>15178</v>
-      </c>
-      <c r="H19" s="1">
         <v>69821</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1944,19 +1887,16 @@
         <v>61981</v>
       </c>
       <c r="E20" s="1">
-        <v>3742</v>
+        <v>18052</v>
       </c>
       <c r="F20" s="1">
-        <v>18052</v>
+        <v>-14310</v>
       </c>
       <c r="G20" s="1">
-        <v>14310</v>
-      </c>
-      <c r="H20" s="1">
         <v>78046</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1970,19 +1910,16 @@
         <v>57084</v>
       </c>
       <c r="E21" s="1">
-        <v>4190</v>
+        <v>18180</v>
       </c>
       <c r="F21" s="1">
-        <v>18180</v>
+        <v>-13990</v>
       </c>
       <c r="G21" s="1">
-        <v>13990</v>
-      </c>
-      <c r="H21" s="1">
         <v>83314</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1996,19 +1933,16 @@
         <v>58132</v>
       </c>
       <c r="E22" s="1">
-        <v>3721</v>
+        <v>18679</v>
       </c>
       <c r="F22" s="1">
-        <v>18679</v>
+        <v>-14958</v>
       </c>
       <c r="G22" s="1">
-        <v>14958</v>
-      </c>
-      <c r="H22" s="1">
         <v>84998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2022,19 +1956,16 @@
         <v>53004</v>
       </c>
       <c r="E23" s="1">
-        <v>1951</v>
+        <v>16581</v>
       </c>
       <c r="F23" s="1">
-        <v>16581</v>
+        <v>-14630</v>
       </c>
       <c r="G23" s="1">
-        <v>14630</v>
-      </c>
-      <c r="H23" s="1">
         <v>88987</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2048,19 +1979,16 @@
         <v>57220</v>
       </c>
       <c r="E24" s="1">
-        <v>-4</v>
+        <v>15246</v>
       </c>
       <c r="F24" s="1">
-        <v>15246</v>
+        <v>-15250</v>
       </c>
       <c r="G24" s="1">
-        <v>15250</v>
-      </c>
-      <c r="H24" s="1">
         <v>90931</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2074,19 +2002,16 @@
         <v>60737</v>
       </c>
       <c r="E25" s="1">
-        <v>-1013</v>
+        <v>15329</v>
       </c>
       <c r="F25" s="1">
-        <v>15329</v>
+        <v>-16342</v>
       </c>
       <c r="G25" s="1">
-        <v>16342</v>
-      </c>
-      <c r="H25" s="1">
         <v>93418</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2100,19 +2025,16 @@
         <v>61663</v>
       </c>
       <c r="E26" s="1">
-        <v>-667</v>
+        <v>15128</v>
       </c>
       <c r="F26" s="1">
-        <v>15128</v>
+        <v>-15795</v>
       </c>
       <c r="G26" s="1">
-        <v>15795</v>
-      </c>
-      <c r="H26" s="1">
         <v>95764</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2126,19 +2048,16 @@
         <v>62115</v>
       </c>
       <c r="E27" s="1">
-        <v>-1251</v>
+        <v>15196</v>
       </c>
       <c r="F27" s="1">
-        <v>15196</v>
+        <v>-16447</v>
       </c>
       <c r="G27" s="1">
-        <v>16447</v>
-      </c>
-      <c r="H27" s="1">
         <v>97925</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2152,19 +2071,16 @@
         <v>61435</v>
       </c>
       <c r="E28" s="1">
-        <v>-552</v>
+        <v>15755</v>
       </c>
       <c r="F28" s="1">
-        <v>15755</v>
+        <v>-16307</v>
       </c>
       <c r="G28" s="1">
-        <v>16307</v>
-      </c>
-      <c r="H28" s="1">
         <v>96622</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2178,19 +2094,16 @@
         <v>56446</v>
       </c>
       <c r="E29" s="1">
-        <v>-335</v>
+        <v>15172</v>
       </c>
       <c r="F29" s="1">
-        <v>15172</v>
+        <v>-15507</v>
       </c>
       <c r="G29" s="1">
-        <v>15507</v>
-      </c>
-      <c r="H29" s="1">
         <v>96747</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2204,19 +2117,16 @@
         <v>55717</v>
       </c>
       <c r="E30" s="1">
-        <v>-356</v>
+        <v>14424</v>
       </c>
       <c r="F30" s="1">
-        <v>14424</v>
+        <v>-14780</v>
       </c>
       <c r="G30" s="1">
-        <v>14780</v>
-      </c>
-      <c r="H30" s="1">
         <v>94831</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2230,19 +2140,16 @@
         <v>55449</v>
       </c>
       <c r="E31" s="1">
-        <v>254</v>
+        <v>16438</v>
       </c>
       <c r="F31" s="1">
-        <v>16438</v>
+        <v>-16184</v>
       </c>
       <c r="G31" s="1">
-        <v>16184</v>
-      </c>
-      <c r="H31" s="1">
         <v>92534</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2256,19 +2163,16 @@
         <v>58971</v>
       </c>
       <c r="E32" s="1">
-        <v>574</v>
+        <v>15878</v>
       </c>
       <c r="F32" s="1">
-        <v>15878</v>
+        <v>-15304</v>
       </c>
       <c r="G32" s="1">
-        <v>15304</v>
-      </c>
-      <c r="H32" s="1">
         <v>91148</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2282,19 +2186,16 @@
         <v>62139</v>
       </c>
       <c r="E33" s="1">
-        <v>1145</v>
+        <v>16605</v>
       </c>
       <c r="F33" s="1">
-        <v>16605</v>
+        <v>-15460</v>
       </c>
       <c r="G33" s="1">
-        <v>15460</v>
-      </c>
-      <c r="H33" s="1">
         <v>91356</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2308,19 +2209,16 @@
         <v>68702</v>
       </c>
       <c r="E34" s="1">
-        <v>1104</v>
+        <v>17273</v>
       </c>
       <c r="F34" s="1">
-        <v>17273</v>
+        <v>-16169</v>
       </c>
       <c r="G34" s="1">
-        <v>16169</v>
-      </c>
-      <c r="H34" s="1">
         <v>91869</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2334,19 +2232,16 @@
         <v>72688</v>
       </c>
       <c r="E35" s="1">
-        <v>-155</v>
+        <v>16942</v>
       </c>
       <c r="F35" s="1">
-        <v>16942</v>
+        <v>-17097</v>
       </c>
       <c r="G35" s="1">
-        <v>17097</v>
-      </c>
-      <c r="H35" s="1">
         <v>92533</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2360,19 +2255,16 @@
         <v>74747</v>
       </c>
       <c r="E36" s="1">
-        <v>724</v>
+        <v>18145</v>
       </c>
       <c r="F36" s="1">
-        <v>18145</v>
+        <v>-17421</v>
       </c>
       <c r="G36" s="1">
-        <v>17421</v>
-      </c>
-      <c r="H36" s="1">
         <v>94099</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2386,19 +2278,16 @@
         <v>78882</v>
       </c>
       <c r="E37" s="1">
-        <v>240</v>
+        <v>18349</v>
       </c>
       <c r="F37" s="1">
-        <v>18349</v>
+        <v>-18109</v>
       </c>
       <c r="G37" s="1">
-        <v>18109</v>
-      </c>
-      <c r="H37" s="1">
         <v>93331</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2412,19 +2301,16 @@
         <v>78303</v>
       </c>
       <c r="E38" s="1">
-        <v>440</v>
+        <v>19365</v>
       </c>
       <c r="F38" s="1">
-        <v>19365</v>
+        <v>-18925</v>
       </c>
       <c r="G38" s="1">
-        <v>18925</v>
-      </c>
-      <c r="H38" s="1">
         <v>94848</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2438,19 +2324,16 @@
         <v>77020</v>
       </c>
       <c r="E39" s="1">
-        <v>1909</v>
+        <v>20882</v>
       </c>
       <c r="F39" s="1">
-        <v>20882</v>
+        <v>-18973</v>
       </c>
       <c r="G39" s="1">
-        <v>18973</v>
-      </c>
-      <c r="H39" s="1">
         <v>98247</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2464,19 +2347,16 @@
         <v>78267</v>
       </c>
       <c r="E40" s="1">
-        <v>2569</v>
+        <v>21822</v>
       </c>
       <c r="F40" s="1">
-        <v>21822</v>
+        <v>-19253</v>
       </c>
       <c r="G40" s="1">
-        <v>19253</v>
-      </c>
-      <c r="H40" s="1">
         <v>98279</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2490,19 +2370,16 @@
         <v>77145</v>
       </c>
       <c r="E41" s="1">
-        <v>4527</v>
+        <v>23068</v>
       </c>
       <c r="F41" s="1">
-        <v>23068</v>
+        <v>-18541</v>
       </c>
       <c r="G41" s="1">
-        <v>18541</v>
-      </c>
-      <c r="H41" s="1">
         <v>101345</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2516,19 +2393,16 @@
         <v>77728</v>
       </c>
       <c r="E42" s="1">
-        <v>4819</v>
+        <v>24919</v>
       </c>
       <c r="F42" s="1">
-        <v>24919</v>
+        <v>-20100</v>
       </c>
       <c r="G42" s="1">
-        <v>20100</v>
-      </c>
-      <c r="H42" s="1">
         <v>105342</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2542,19 +2416,16 @@
         <v>77907</v>
       </c>
       <c r="E43" s="1">
-        <v>4099</v>
+        <v>24369</v>
       </c>
       <c r="F43" s="1">
-        <v>24369</v>
+        <v>-20270</v>
       </c>
       <c r="G43" s="1">
-        <v>20270</v>
-      </c>
-      <c r="H43" s="1">
         <v>105842</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2568,19 +2439,16 @@
         <v>79339</v>
       </c>
       <c r="E44" s="1">
-        <v>3997</v>
+        <v>23759</v>
       </c>
       <c r="F44" s="1">
-        <v>23759</v>
+        <v>-19762</v>
       </c>
       <c r="G44" s="1">
-        <v>19762</v>
-      </c>
-      <c r="H44" s="1">
         <v>107405</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2594,19 +2462,16 @@
         <v>71045</v>
       </c>
       <c r="E45" s="1">
-        <v>3388</v>
+        <v>23022</v>
       </c>
       <c r="F45" s="1">
-        <v>23022</v>
+        <v>-19634</v>
       </c>
       <c r="G45" s="1">
-        <v>19634</v>
-      </c>
-      <c r="H45" s="1">
         <v>110062</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2620,19 +2485,16 @@
         <v>66730</v>
       </c>
       <c r="E46" s="1">
-        <v>1079</v>
+        <v>20534</v>
       </c>
       <c r="F46" s="1">
-        <v>20534</v>
+        <v>-19455</v>
       </c>
       <c r="G46" s="1">
-        <v>19455</v>
-      </c>
-      <c r="H46" s="1">
         <v>109843</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2646,19 +2508,16 @@
         <v>65065</v>
       </c>
       <c r="E47" s="1">
-        <v>471</v>
+        <v>20546</v>
       </c>
       <c r="F47" s="1">
-        <v>20546</v>
+        <v>-20075</v>
       </c>
       <c r="G47" s="1">
-        <v>20075</v>
-      </c>
-      <c r="H47" s="1">
         <v>113624</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2672,19 +2531,16 @@
         <v>71999</v>
       </c>
       <c r="E48" s="1">
-        <v>856</v>
+        <v>20595</v>
       </c>
       <c r="F48" s="1">
-        <v>20595</v>
+        <v>-19739</v>
       </c>
       <c r="G48" s="1">
-        <v>19739</v>
-      </c>
-      <c r="H48" s="1">
         <v>115093</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2698,19 +2554,16 @@
         <v>80001</v>
       </c>
       <c r="E49" s="1">
-        <v>-260</v>
+        <v>20563</v>
       </c>
       <c r="F49" s="1">
-        <v>20563</v>
+        <v>-20823</v>
       </c>
       <c r="G49" s="1">
-        <v>20823</v>
-      </c>
-      <c r="H49" s="1">
         <v>117992</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2724,19 +2577,16 @@
         <v>83166</v>
       </c>
       <c r="E50" s="1">
-        <v>519</v>
+        <v>21915</v>
       </c>
       <c r="F50" s="1">
-        <v>21915</v>
+        <v>-21396</v>
       </c>
       <c r="G50" s="1">
-        <v>21396</v>
-      </c>
-      <c r="H50" s="1">
         <v>117195</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2750,19 +2600,16 @@
         <v>89381</v>
       </c>
       <c r="E51" s="1">
-        <v>-768</v>
+        <v>21776</v>
       </c>
       <c r="F51" s="1">
-        <v>21776</v>
+        <v>-22544</v>
       </c>
       <c r="G51" s="1">
-        <v>22544</v>
-      </c>
-      <c r="H51" s="1">
         <v>118535</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2776,19 +2623,16 @@
         <v>83606</v>
       </c>
       <c r="E52" s="1">
-        <v>1211</v>
+        <v>24079</v>
       </c>
       <c r="F52" s="1">
-        <v>24079</v>
+        <v>-22868</v>
       </c>
       <c r="G52" s="1">
-        <v>22868</v>
-      </c>
-      <c r="H52" s="1">
         <v>119492</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2802,19 +2646,16 @@
         <v>86524</v>
       </c>
       <c r="E53" s="1">
-        <v>627</v>
+        <v>23131</v>
       </c>
       <c r="F53" s="1">
-        <v>23131</v>
+        <v>-22504</v>
       </c>
       <c r="G53" s="1">
-        <v>22504</v>
-      </c>
-      <c r="H53" s="1">
         <v>118608</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2828,19 +2669,16 @@
         <v>96476</v>
       </c>
       <c r="E54" s="1">
-        <v>2858</v>
+        <v>26145</v>
       </c>
       <c r="F54" s="1">
-        <v>26145</v>
+        <v>-23288</v>
       </c>
       <c r="G54" s="1">
-        <v>23288</v>
-      </c>
-      <c r="H54" s="1">
         <v>116951</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2854,19 +2692,16 @@
         <v>87096</v>
       </c>
       <c r="E55" s="1">
-        <v>3395</v>
+        <v>26850</v>
       </c>
       <c r="F55" s="1">
-        <v>26850</v>
+        <v>-23455</v>
       </c>
       <c r="G55" s="1">
-        <v>23455</v>
-      </c>
-      <c r="H55" s="1">
         <v>118380</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2880,19 +2715,16 @@
         <v>86377</v>
       </c>
       <c r="E56" s="1">
-        <v>4682</v>
+        <v>27561</v>
       </c>
       <c r="F56" s="1">
-        <v>27561</v>
+        <v>-22879</v>
       </c>
       <c r="G56" s="1">
-        <v>22879</v>
-      </c>
-      <c r="H56" s="1">
         <v>122419</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2906,19 +2738,16 @@
         <v>75963</v>
       </c>
       <c r="E57" s="1">
-        <v>5880</v>
+        <v>27622</v>
       </c>
       <c r="F57" s="1">
-        <v>27622</v>
+        <v>-21742</v>
       </c>
       <c r="G57" s="1">
-        <v>21742</v>
-      </c>
-      <c r="H57" s="1">
         <v>124330</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2932,19 +2761,16 @@
         <v>78378</v>
       </c>
       <c r="E58" s="1">
-        <v>5902</v>
+        <v>27560</v>
       </c>
       <c r="F58" s="1">
-        <v>27560</v>
+        <v>-21658</v>
       </c>
       <c r="G58" s="1">
-        <v>21658</v>
-      </c>
-      <c r="H58" s="1">
         <v>126218</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2958,19 +2784,16 @@
         <v>84108</v>
       </c>
       <c r="E59" s="1">
-        <v>4727</v>
+        <v>26627</v>
       </c>
       <c r="F59" s="1">
-        <v>26627</v>
+        <v>-21899</v>
       </c>
       <c r="G59" s="1">
-        <v>21899</v>
-      </c>
-      <c r="H59" s="1">
         <v>127254</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2984,19 +2807,16 @@
         <v>90917</v>
       </c>
       <c r="E60" s="1">
-        <v>4453</v>
+        <v>27779</v>
       </c>
       <c r="F60" s="1">
-        <v>27779</v>
+        <v>-23326</v>
       </c>
       <c r="G60" s="1">
-        <v>23326</v>
-      </c>
-      <c r="H60" s="1">
         <v>129961</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3010,19 +2830,16 @@
         <v>92931</v>
       </c>
       <c r="E61" s="1">
-        <v>4572</v>
+        <v>28442</v>
       </c>
       <c r="F61" s="1">
-        <v>28442</v>
+        <v>-23870</v>
       </c>
       <c r="G61" s="1">
-        <v>23870</v>
-      </c>
-      <c r="H61" s="1">
         <v>133516</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3036,19 +2853,16 @@
         <v>98074</v>
       </c>
       <c r="E62" s="1">
-        <v>4010</v>
+        <v>28325</v>
       </c>
       <c r="F62" s="1">
-        <v>28325</v>
+        <v>-24314</v>
       </c>
       <c r="G62" s="1">
-        <v>24314</v>
-      </c>
-      <c r="H62" s="1">
         <v>137107</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3062,19 +2876,16 @@
         <v>96706</v>
       </c>
       <c r="E63" s="1">
-        <v>4777</v>
+        <v>29662</v>
       </c>
       <c r="F63" s="1">
-        <v>29662</v>
+        <v>-24884</v>
       </c>
       <c r="G63" s="1">
-        <v>24884</v>
-      </c>
-      <c r="H63" s="1">
         <v>138426</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3088,19 +2899,16 @@
         <v>98160</v>
       </c>
       <c r="E64" s="1">
-        <v>4482</v>
+        <v>29593</v>
       </c>
       <c r="F64" s="1">
-        <v>29593</v>
+        <v>-25111</v>
       </c>
       <c r="G64" s="1">
-        <v>25111</v>
-      </c>
-      <c r="H64" s="1">
         <v>142052</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3114,19 +2922,16 @@
         <v>94968</v>
       </c>
       <c r="E65" s="1">
-        <v>3133</v>
+        <v>28683</v>
       </c>
       <c r="F65" s="1">
-        <v>28683</v>
+        <v>-25550</v>
       </c>
       <c r="G65" s="1">
-        <v>25550</v>
-      </c>
-      <c r="H65" s="1">
         <v>143562</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3140,19 +2945,16 @@
         <v>99689</v>
       </c>
       <c r="E66" s="1">
-        <v>3976</v>
+        <v>29161</v>
       </c>
       <c r="F66" s="1">
-        <v>29161</v>
+        <v>-25185</v>
       </c>
       <c r="G66" s="1">
-        <v>25185</v>
-      </c>
-      <c r="H66" s="1">
         <v>143724</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3166,19 +2968,16 @@
         <v>101650</v>
       </c>
       <c r="E67" s="1">
-        <v>5558</v>
+        <v>31448</v>
       </c>
       <c r="F67" s="1">
-        <v>31448</v>
+        <v>-25890</v>
       </c>
       <c r="G67" s="1">
-        <v>25890</v>
-      </c>
-      <c r="H67" s="1">
         <v>144132</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3192,19 +2991,16 @@
         <v>104612</v>
       </c>
       <c r="E68" s="1">
-        <v>4511</v>
+        <v>31215</v>
       </c>
       <c r="F68" s="1">
-        <v>31215</v>
+        <v>-26704</v>
       </c>
       <c r="G68" s="1">
-        <v>26704</v>
-      </c>
-      <c r="H68" s="1">
         <v>149927</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3218,19 +3014,16 @@
         <v>107189</v>
       </c>
       <c r="E69" s="1">
-        <v>5711</v>
+        <v>32474</v>
       </c>
       <c r="F69" s="1">
-        <v>32474</v>
+        <v>-26764</v>
       </c>
       <c r="G69" s="1">
-        <v>26764</v>
-      </c>
-      <c r="H69" s="1">
         <v>150989</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3244,19 +3037,16 @@
         <v>110474</v>
       </c>
       <c r="E70" s="1">
-        <v>7213</v>
+        <v>34192</v>
       </c>
       <c r="F70" s="1">
-        <v>34192</v>
+        <v>-26978</v>
       </c>
       <c r="G70" s="1">
-        <v>26978</v>
-      </c>
-      <c r="H70" s="1">
         <v>152554</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3270,19 +3060,16 @@
         <v>110518</v>
       </c>
       <c r="E71" s="1">
-        <v>6305</v>
+        <v>34030</v>
       </c>
       <c r="F71" s="1">
-        <v>34030</v>
+        <v>-27726</v>
       </c>
       <c r="G71" s="1">
-        <v>27726</v>
-      </c>
-      <c r="H71" s="1">
         <v>154314</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3296,19 +3083,16 @@
         <v>112631</v>
       </c>
       <c r="E72" s="1">
-        <v>6946</v>
+        <v>35375</v>
       </c>
       <c r="F72" s="1">
-        <v>35375</v>
+        <v>-28429</v>
       </c>
       <c r="G72" s="1">
-        <v>28429</v>
-      </c>
-      <c r="H72" s="1">
         <v>156033</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3322,19 +3106,16 @@
         <v>114984</v>
       </c>
       <c r="E73" s="1">
-        <v>7195</v>
+        <v>36480</v>
       </c>
       <c r="F73" s="1">
-        <v>36480</v>
+        <v>-29285</v>
       </c>
       <c r="G73" s="1">
-        <v>29285</v>
-      </c>
-      <c r="H73" s="1">
         <v>156152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3348,19 +3129,16 @@
         <v>126542</v>
       </c>
       <c r="E74" s="1">
-        <v>4512</v>
+        <v>32969</v>
       </c>
       <c r="F74" s="1">
-        <v>32969</v>
+        <v>-28457</v>
       </c>
       <c r="G74" s="1">
-        <v>28457</v>
-      </c>
-      <c r="H74" s="1">
         <v>157025</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3374,19 +3152,16 @@
         <v>127052</v>
       </c>
       <c r="E75" s="1">
-        <v>6688</v>
+        <v>38367</v>
       </c>
       <c r="F75" s="1">
-        <v>38367</v>
+        <v>-31679</v>
       </c>
       <c r="G75" s="1">
-        <v>31679</v>
-      </c>
-      <c r="H75" s="1">
         <v>159808</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3400,19 +3175,16 @@
         <v>131237</v>
       </c>
       <c r="E76" s="1">
-        <v>5521</v>
+        <v>37551</v>
       </c>
       <c r="F76" s="1">
-        <v>37551</v>
+        <v>-32030</v>
       </c>
       <c r="G76" s="1">
-        <v>32030</v>
-      </c>
-      <c r="H76" s="1">
         <v>166761</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3426,19 +3198,16 @@
         <v>133752</v>
       </c>
       <c r="E77" s="1">
-        <v>5750</v>
+        <v>39698</v>
       </c>
       <c r="F77" s="1">
-        <v>39698</v>
+        <v>-33948</v>
       </c>
       <c r="G77" s="1">
-        <v>33948</v>
-      </c>
-      <c r="H77" s="1">
         <v>172619</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3452,19 +3221,16 @@
         <v>144200</v>
       </c>
       <c r="E78" s="1">
-        <v>4367</v>
+        <v>39356</v>
       </c>
       <c r="F78" s="1">
-        <v>39356</v>
+        <v>-34990</v>
       </c>
       <c r="G78" s="1">
-        <v>34990</v>
-      </c>
-      <c r="H78" s="1">
         <v>177032</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3478,19 +3244,16 @@
         <v>143501</v>
       </c>
       <c r="E79" s="1">
-        <v>4632</v>
+        <v>40872</v>
       </c>
       <c r="F79" s="1">
-        <v>40872</v>
+        <v>-36240</v>
       </c>
       <c r="G79" s="1">
-        <v>36240</v>
-      </c>
-      <c r="H79" s="1">
         <v>181659</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3504,19 +3267,16 @@
         <v>143194</v>
       </c>
       <c r="E80" s="1">
-        <v>2687</v>
+        <v>40857</v>
       </c>
       <c r="F80" s="1">
-        <v>40857</v>
+        <v>-38171</v>
       </c>
       <c r="G80" s="1">
-        <v>38171</v>
-      </c>
-      <c r="H80" s="1">
         <v>189466</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3530,19 +3290,16 @@
         <v>145855</v>
       </c>
       <c r="E81" s="1">
-        <v>3765</v>
+        <v>42594</v>
       </c>
       <c r="F81" s="1">
-        <v>42594</v>
+        <v>-38829</v>
       </c>
       <c r="G81" s="1">
-        <v>38829</v>
-      </c>
-      <c r="H81" s="1">
         <v>193621</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3556,19 +3313,16 @@
         <v>142811</v>
       </c>
       <c r="E82" s="1">
-        <v>4453</v>
+        <v>43886</v>
       </c>
       <c r="F82" s="1">
-        <v>43886</v>
+        <v>-39432</v>
       </c>
       <c r="G82" s="1">
-        <v>39432</v>
-      </c>
-      <c r="H82" s="1">
         <v>202588</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3582,19 +3336,16 @@
         <v>137495</v>
       </c>
       <c r="E83" s="1">
-        <v>4219</v>
+        <v>43239</v>
       </c>
       <c r="F83" s="1">
-        <v>43239</v>
+        <v>-39020</v>
       </c>
       <c r="G83" s="1">
-        <v>39020</v>
-      </c>
-      <c r="H83" s="1">
         <v>203811</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3608,19 +3359,16 @@
         <v>142835</v>
       </c>
       <c r="E84" s="1">
-        <v>3302</v>
+        <v>42845</v>
       </c>
       <c r="F84" s="1">
-        <v>42845</v>
+        <v>-39543</v>
       </c>
       <c r="G84" s="1">
-        <v>39543</v>
-      </c>
-      <c r="H84" s="1">
         <v>208379</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3634,19 +3382,16 @@
         <v>147653</v>
       </c>
       <c r="E85" s="1">
-        <v>2244</v>
+        <v>43896</v>
       </c>
       <c r="F85" s="1">
-        <v>43896</v>
+        <v>-41652</v>
       </c>
       <c r="G85" s="1">
-        <v>41652</v>
-      </c>
-      <c r="H85" s="1">
         <v>213293</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3660,19 +3405,16 @@
         <v>152288</v>
       </c>
       <c r="E86" s="1">
-        <v>1054</v>
+        <v>45452</v>
       </c>
       <c r="F86" s="1">
-        <v>45452</v>
+        <v>-44399</v>
       </c>
       <c r="G86" s="1">
-        <v>44399</v>
-      </c>
-      <c r="H86" s="1">
         <v>219749</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3686,19 +3428,16 @@
         <v>158943</v>
       </c>
       <c r="E87" s="1">
-        <v>1749</v>
+        <v>47165</v>
       </c>
       <c r="F87" s="1">
-        <v>47165</v>
+        <v>-45416</v>
       </c>
       <c r="G87" s="1">
-        <v>45416</v>
-      </c>
-      <c r="H87" s="1">
         <v>223637</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3712,19 +3451,16 @@
         <v>155683</v>
       </c>
       <c r="E88" s="1">
-        <v>1650</v>
+        <v>49891</v>
       </c>
       <c r="F88" s="1">
-        <v>49891</v>
+        <v>-48240</v>
       </c>
       <c r="G88" s="1">
-        <v>48240</v>
-      </c>
-      <c r="H88" s="1">
         <v>227370</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3738,19 +3474,16 @@
         <v>160760</v>
       </c>
       <c r="E89" s="1">
-        <v>945</v>
+        <v>49116</v>
       </c>
       <c r="F89" s="1">
-        <v>49116</v>
+        <v>-48170</v>
       </c>
       <c r="G89" s="1">
-        <v>48170</v>
-      </c>
-      <c r="H89" s="1">
         <v>231347</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3764,19 +3497,16 @@
         <v>172388</v>
       </c>
       <c r="E90" s="1">
-        <v>239</v>
+        <v>44042</v>
       </c>
       <c r="F90" s="1">
-        <v>44042</v>
+        <v>-43804</v>
       </c>
       <c r="G90" s="1">
-        <v>43804</v>
-      </c>
-      <c r="H90" s="1">
         <v>233705</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3790,19 +3520,16 @@
         <v>172721</v>
       </c>
       <c r="E91" s="1">
-        <v>1104</v>
+        <v>53775</v>
       </c>
       <c r="F91" s="1">
-        <v>53775</v>
+        <v>-52671</v>
       </c>
       <c r="G91" s="1">
-        <v>52671</v>
-      </c>
-      <c r="H91" s="1">
         <v>236859</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3816,19 +3543,16 @@
         <v>177564</v>
       </c>
       <c r="E92" s="1">
-        <v>1231</v>
+        <v>53596</v>
       </c>
       <c r="F92" s="1">
-        <v>53596</v>
+        <v>-52365</v>
       </c>
       <c r="G92" s="1">
-        <v>52365</v>
-      </c>
-      <c r="H92" s="1">
         <v>242535</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3842,19 +3566,16 @@
         <v>171573</v>
       </c>
       <c r="E93" s="1">
-        <v>3149</v>
+        <v>56275</v>
       </c>
       <c r="F93" s="1">
-        <v>56275</v>
+        <v>-53126</v>
       </c>
       <c r="G93" s="1">
-        <v>53126</v>
-      </c>
-      <c r="H93" s="1">
         <v>242838</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3868,19 +3589,16 @@
         <v>168113</v>
       </c>
       <c r="E94" s="1">
-        <v>3514</v>
+        <v>57031</v>
       </c>
       <c r="F94" s="1">
-        <v>57031</v>
+        <v>-53517</v>
       </c>
       <c r="G94" s="1">
-        <v>53517</v>
-      </c>
-      <c r="H94" s="1">
         <v>247889</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3894,19 +3612,16 @@
         <v>171455</v>
       </c>
       <c r="E95" s="1">
-        <v>5207</v>
+        <v>60411</v>
       </c>
       <c r="F95" s="1">
-        <v>60411</v>
+        <v>-55204</v>
       </c>
       <c r="G95" s="1">
-        <v>55204</v>
-      </c>
-      <c r="H95" s="1">
         <v>249143</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3920,19 +3635,16 @@
         <v>173904</v>
       </c>
       <c r="E96" s="1">
-        <v>4088</v>
+        <v>60519</v>
       </c>
       <c r="F96" s="1">
-        <v>60519</v>
+        <v>-56431</v>
       </c>
       <c r="G96" s="1">
-        <v>56431</v>
-      </c>
-      <c r="H96" s="1">
         <v>254584</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3946,19 +3658,16 @@
         <v>166754</v>
       </c>
       <c r="E97" s="1">
-        <v>2985</v>
+        <v>60873</v>
       </c>
       <c r="F97" s="1">
-        <v>60873</v>
+        <v>-57888</v>
       </c>
       <c r="G97" s="1">
-        <v>57888</v>
-      </c>
-      <c r="H97" s="1">
         <v>258708</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3972,19 +3681,16 @@
         <v>189495</v>
       </c>
       <c r="E98" s="1">
-        <v>4570</v>
+        <v>63221</v>
       </c>
       <c r="F98" s="1">
-        <v>63221</v>
+        <v>-58651</v>
       </c>
       <c r="G98" s="1">
-        <v>58651</v>
-      </c>
-      <c r="H98" s="1">
         <v>261905</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3998,19 +3704,16 @@
         <v>197329</v>
       </c>
       <c r="E99" s="1">
-        <v>-401</v>
+        <v>62894</v>
       </c>
       <c r="F99" s="1">
-        <v>62894</v>
+        <v>-63296</v>
       </c>
       <c r="G99" s="1">
-        <v>63296</v>
-      </c>
-      <c r="H99" s="1">
         <v>266118</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4024,19 +3727,16 @@
         <v>202058</v>
       </c>
       <c r="E100" s="1">
-        <v>236</v>
+        <v>65717</v>
       </c>
       <c r="F100" s="1">
-        <v>65717</v>
+        <v>-65482</v>
       </c>
       <c r="G100" s="1">
-        <v>65482</v>
-      </c>
-      <c r="H100" s="1">
         <v>269783</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4050,19 +3750,16 @@
         <v>198411</v>
       </c>
       <c r="E101" s="1">
-        <v>-1920</v>
+        <v>60019</v>
       </c>
       <c r="F101" s="1">
-        <v>60019</v>
+        <v>-61939</v>
       </c>
       <c r="G101" s="1">
-        <v>61939</v>
-      </c>
-      <c r="H101" s="1">
         <v>272067</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4076,19 +3773,16 @@
         <v>212968</v>
       </c>
       <c r="E102" s="1">
-        <v>-3534</v>
+        <v>68639</v>
       </c>
       <c r="F102" s="1">
-        <v>68639</v>
+        <v>-72173</v>
       </c>
       <c r="G102" s="1">
-        <v>72173</v>
-      </c>
-      <c r="H102" s="1">
         <v>282228</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4102,19 +3796,16 @@
         <v>226798</v>
       </c>
       <c r="E103" s="1">
-        <v>-4258</v>
+        <v>67152</v>
       </c>
       <c r="F103" s="1">
-        <v>67152</v>
+        <v>-71409</v>
       </c>
       <c r="G103" s="1">
-        <v>71409</v>
-      </c>
-      <c r="H103" s="1">
         <v>286464</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4128,19 +3819,16 @@
         <v>233090</v>
       </c>
       <c r="E104" s="1">
-        <v>-2638</v>
+        <v>71453</v>
       </c>
       <c r="F104" s="1">
-        <v>71453</v>
+        <v>-74090</v>
       </c>
       <c r="G104" s="1">
-        <v>74090</v>
-      </c>
-      <c r="H104" s="1">
         <v>284316</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4154,19 +3842,16 @@
         <v>239715</v>
       </c>
       <c r="E105" s="1">
-        <v>-3061</v>
+        <v>76129</v>
       </c>
       <c r="F105" s="1">
-        <v>76129</v>
+        <v>-79190</v>
       </c>
       <c r="G105" s="1">
-        <v>79190</v>
-      </c>
-      <c r="H105" s="1">
         <v>291749</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4180,19 +3865,16 @@
         <v>254313</v>
       </c>
       <c r="E106" s="1">
-        <v>-1400</v>
+        <v>83959</v>
       </c>
       <c r="F106" s="1">
-        <v>83959</v>
+        <v>-85360</v>
       </c>
       <c r="G106" s="1">
-        <v>85360</v>
-      </c>
-      <c r="H106" s="1">
         <v>299571</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4206,19 +3888,16 @@
         <v>268196</v>
       </c>
       <c r="E107" s="1">
-        <v>2454</v>
+        <v>91923</v>
       </c>
       <c r="F107" s="1">
-        <v>91923</v>
+        <v>-89468</v>
       </c>
       <c r="G107" s="1">
-        <v>89468</v>
-      </c>
-      <c r="H107" s="1">
         <v>302709</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4232,19 +3911,16 @@
         <v>264335</v>
       </c>
       <c r="E108" s="1">
-        <v>6437</v>
+        <v>97576</v>
       </c>
       <c r="F108" s="1">
-        <v>97576</v>
+        <v>-91139</v>
       </c>
       <c r="G108" s="1">
-        <v>91139</v>
-      </c>
-      <c r="H108" s="1">
         <v>304189</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4258,19 +3934,16 @@
         <v>280858</v>
       </c>
       <c r="E109" s="1">
-        <v>8952</v>
+        <v>107620</v>
       </c>
       <c r="F109" s="1">
-        <v>107620</v>
+        <v>-98669</v>
       </c>
       <c r="G109" s="1">
-        <v>98669</v>
-      </c>
-      <c r="H109" s="1">
         <v>312593</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4284,19 +3957,16 @@
         <v>268361</v>
       </c>
       <c r="E110" s="1">
-        <v>6394</v>
+        <v>116709</v>
       </c>
       <c r="F110" s="1">
-        <v>116709</v>
+        <v>-110315</v>
       </c>
       <c r="G110" s="1">
-        <v>110315</v>
-      </c>
-      <c r="H110" s="1">
         <v>324586</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4310,19 +3980,16 @@
         <v>277391</v>
       </c>
       <c r="E111" s="1">
-        <v>-2714</v>
+        <v>126668</v>
       </c>
       <c r="F111" s="1">
-        <v>126668</v>
+        <v>-129382</v>
       </c>
       <c r="G111" s="1">
-        <v>129382</v>
-      </c>
-      <c r="H111" s="1">
         <v>334957</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4336,19 +4003,16 @@
         <v>271013</v>
       </c>
       <c r="E112" s="1">
-        <v>-6972</v>
+        <v>126638</v>
       </c>
       <c r="F112" s="1">
-        <v>126638</v>
+        <v>-133610</v>
       </c>
       <c r="G112" s="1">
-        <v>133610</v>
-      </c>
-      <c r="H112" s="1">
         <v>346710</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4362,19 +4026,16 @@
         <v>281339</v>
       </c>
       <c r="E113" s="1">
-        <v>33</v>
+        <v>136585</v>
       </c>
       <c r="F113" s="1">
-        <v>136585</v>
+        <v>-136552</v>
       </c>
       <c r="G113" s="1">
-        <v>136552</v>
-      </c>
-      <c r="H113" s="1">
         <v>359228</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4388,19 +4049,16 @@
         <v>244306</v>
       </c>
       <c r="E114" s="1">
-        <v>16481</v>
+        <v>141369</v>
       </c>
       <c r="F114" s="1">
-        <v>141369</v>
+        <v>-124888</v>
       </c>
       <c r="G114" s="1">
-        <v>124888</v>
-      </c>
-      <c r="H114" s="1">
         <v>370138</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4414,19 +4072,16 @@
         <v>243281</v>
       </c>
       <c r="E115" s="1">
-        <v>21582</v>
+        <v>136827</v>
       </c>
       <c r="F115" s="1">
-        <v>136827</v>
+        <v>-115245</v>
       </c>
       <c r="G115" s="1">
-        <v>115245</v>
-      </c>
-      <c r="H115" s="1">
         <v>373408</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4440,19 +4095,16 @@
         <v>265192</v>
       </c>
       <c r="E116" s="1">
-        <v>12043</v>
+        <v>134098</v>
       </c>
       <c r="F116" s="1">
-        <v>134098</v>
+        <v>-122055</v>
       </c>
       <c r="G116" s="1">
-        <v>122055</v>
-      </c>
-      <c r="H116" s="1">
         <v>385394</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4466,19 +4118,16 @@
         <v>276236</v>
       </c>
       <c r="E117" s="1">
-        <v>13801</v>
+        <v>142531</v>
       </c>
       <c r="F117" s="1">
-        <v>142531</v>
+        <v>-128730</v>
       </c>
       <c r="G117" s="1">
-        <v>128730</v>
-      </c>
-      <c r="H117" s="1">
         <v>395571</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4492,19 +4141,16 @@
         <v>304638</v>
       </c>
       <c r="E118" s="1">
-        <v>4650</v>
+        <v>143588</v>
       </c>
       <c r="F118" s="1">
-        <v>143588</v>
+        <v>-138938</v>
       </c>
       <c r="G118" s="1">
-        <v>138938</v>
-      </c>
-      <c r="H118" s="1">
         <v>401291</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4518,19 +4164,16 @@
         <v>322303</v>
       </c>
       <c r="E119" s="1">
-        <v>-496</v>
+        <v>146621</v>
       </c>
       <c r="F119" s="1">
-        <v>146621</v>
+        <v>-147116</v>
       </c>
       <c r="G119" s="1">
-        <v>147116</v>
-      </c>
-      <c r="H119" s="1">
         <v>400985</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4544,19 +4187,16 @@
         <v>328307</v>
       </c>
       <c r="E120" s="1">
-        <v>-4073</v>
+        <v>151775</v>
       </c>
       <c r="F120" s="1">
-        <v>151775</v>
+        <v>-155848</v>
       </c>
       <c r="G120" s="1">
-        <v>155848</v>
-      </c>
-      <c r="H120" s="1">
         <v>403517</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4570,19 +4210,16 @@
         <v>337650</v>
       </c>
       <c r="E121" s="1">
-        <v>-6603</v>
+        <v>156076</v>
       </c>
       <c r="F121" s="1">
-        <v>156076</v>
+        <v>-162680</v>
       </c>
       <c r="G121" s="1">
-        <v>162680</v>
-      </c>
-      <c r="H121" s="1">
         <v>410818</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4596,19 +4233,16 @@
         <v>360313</v>
       </c>
       <c r="E122" s="1">
-        <v>-21079</v>
+        <v>155354</v>
       </c>
       <c r="F122" s="1">
-        <v>155354</v>
+        <v>-176433</v>
       </c>
       <c r="G122" s="1">
-        <v>176433</v>
-      </c>
-      <c r="H122" s="1">
         <v>421202</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4622,19 +4256,16 @@
         <v>389703</v>
       </c>
       <c r="E123" s="1">
-        <v>-21136</v>
+        <v>161906</v>
       </c>
       <c r="F123" s="1">
-        <v>161906</v>
+        <v>-183042</v>
       </c>
       <c r="G123" s="1">
-        <v>183042</v>
-      </c>
-      <c r="H123" s="1">
         <v>431362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4648,19 +4279,16 @@
         <v>414134</v>
       </c>
       <c r="E124" s="1">
-        <v>-20579</v>
+        <v>162325</v>
       </c>
       <c r="F124" s="1">
-        <v>162325</v>
+        <v>-182904</v>
       </c>
       <c r="G124" s="1">
-        <v>182904</v>
-      </c>
-      <c r="H124" s="1">
         <v>438014</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4674,19 +4302,16 @@
         <v>422299</v>
       </c>
       <c r="E125" s="1">
-        <v>-29582</v>
+        <v>157809</v>
       </c>
       <c r="F125" s="1">
-        <v>157809</v>
+        <v>-187391</v>
       </c>
       <c r="G125" s="1">
-        <v>187391</v>
-      </c>
-      <c r="H125" s="1">
         <v>446749</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4700,19 +4325,16 @@
         <v>434799</v>
       </c>
       <c r="E126" s="1">
-        <v>-38681</v>
+        <v>164601</v>
       </c>
       <c r="F126" s="1">
-        <v>164601</v>
+        <v>-203282</v>
       </c>
       <c r="G126" s="1">
-        <v>203282</v>
-      </c>
-      <c r="H126" s="1">
         <v>452589</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4726,19 +4348,16 @@
         <v>470584</v>
       </c>
       <c r="E127" s="1">
-        <v>-22624</v>
+        <v>186215</v>
       </c>
       <c r="F127" s="1">
-        <v>186215</v>
+        <v>-208840</v>
       </c>
       <c r="G127" s="1">
-        <v>208840</v>
-      </c>
-      <c r="H127" s="1">
         <v>472288</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4752,19 +4371,16 @@
         <v>492368</v>
       </c>
       <c r="E128" s="1">
-        <v>-23760</v>
+        <v>191302</v>
       </c>
       <c r="F128" s="1">
-        <v>191302</v>
+        <v>-215062</v>
       </c>
       <c r="G128" s="1">
-        <v>215062</v>
-      </c>
-      <c r="H128" s="1">
         <v>484229</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4778,19 +4394,16 @@
         <v>515755</v>
       </c>
       <c r="E129" s="1">
-        <v>-16400</v>
+        <v>205415</v>
       </c>
       <c r="F129" s="1">
-        <v>205415</v>
+        <v>-221815</v>
       </c>
       <c r="G129" s="1">
-        <v>221815</v>
-      </c>
-      <c r="H129" s="1">
         <v>496241</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4804,19 +4417,16 @@
         <v>525809</v>
       </c>
       <c r="E130" s="1">
-        <v>-18159</v>
+        <v>211669</v>
       </c>
       <c r="F130" s="1">
-        <v>211669</v>
+        <v>-229828</v>
       </c>
       <c r="G130" s="1">
-        <v>229828</v>
-      </c>
-      <c r="H130" s="1">
         <v>501818</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4830,19 +4440,16 @@
         <v>539293</v>
       </c>
       <c r="E131" s="1">
-        <v>-22189</v>
+        <v>220908</v>
       </c>
       <c r="F131" s="1">
-        <v>220908</v>
+        <v>-243097</v>
       </c>
       <c r="G131" s="1">
-        <v>243097</v>
-      </c>
-      <c r="H131" s="1">
         <v>516508</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4856,19 +4463,16 @@
         <v>545621</v>
       </c>
       <c r="E132" s="1">
-        <v>-23029</v>
+        <v>234277</v>
       </c>
       <c r="F132" s="1">
-        <v>234277</v>
+        <v>-257306</v>
       </c>
       <c r="G132" s="1">
-        <v>257306</v>
-      </c>
-      <c r="H132" s="1">
         <v>533106</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4882,19 +4486,16 @@
         <v>547875</v>
       </c>
       <c r="E133" s="1">
-        <v>-26802</v>
+        <v>253664</v>
       </c>
       <c r="F133" s="1">
-        <v>253664</v>
+        <v>-280466</v>
       </c>
       <c r="G133" s="1">
-        <v>280466</v>
-      </c>
-      <c r="H133" s="1">
         <v>547775</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4908,19 +4509,16 @@
         <v>554562</v>
       </c>
       <c r="E134" s="1">
-        <v>-35803</v>
+        <v>268508</v>
       </c>
       <c r="F134" s="1">
-        <v>268508</v>
+        <v>-304311</v>
       </c>
       <c r="G134" s="1">
-        <v>304311</v>
-      </c>
-      <c r="H134" s="1">
         <v>568781</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4934,19 +4532,16 @@
         <v>519294</v>
       </c>
       <c r="E135" s="1">
-        <v>-15211</v>
+        <v>277389</v>
       </c>
       <c r="F135" s="1">
-        <v>277389</v>
+        <v>-292600</v>
       </c>
       <c r="G135" s="1">
-        <v>292600</v>
-      </c>
-      <c r="H135" s="1">
         <v>588547</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4960,19 +4555,16 @@
         <v>495071</v>
       </c>
       <c r="E136" s="1">
-        <v>5471</v>
+        <v>284673</v>
       </c>
       <c r="F136" s="1">
-        <v>284673</v>
+        <v>-279202</v>
       </c>
       <c r="G136" s="1">
-        <v>279202</v>
-      </c>
-      <c r="H136" s="1">
         <v>592169</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4986,19 +4578,16 @@
         <v>551472</v>
       </c>
       <c r="E137" s="1">
-        <v>-6682</v>
+        <v>292517</v>
       </c>
       <c r="F137" s="1">
-        <v>292517</v>
+        <v>-299200</v>
       </c>
       <c r="G137" s="1">
-        <v>299200</v>
-      </c>
-      <c r="H137" s="1">
         <v>608893</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -5012,19 +4601,16 @@
         <v>619381</v>
       </c>
       <c r="E138" s="1">
-        <v>-14259</v>
+        <v>305467</v>
       </c>
       <c r="F138" s="1">
-        <v>305467</v>
+        <v>-319726</v>
       </c>
       <c r="G138" s="1">
-        <v>319726</v>
-      </c>
-      <c r="H138" s="1">
         <v>633350</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -5038,19 +4624,16 @@
         <v>609843</v>
       </c>
       <c r="E139" s="1">
-        <v>-13508</v>
+        <v>308455</v>
       </c>
       <c r="F139" s="1">
-        <v>308455</v>
+        <v>-321963</v>
       </c>
       <c r="G139" s="1">
-        <v>321963</v>
-      </c>
-      <c r="H139" s="1">
         <v>648673</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -5064,19 +4647,16 @@
         <v>652297</v>
       </c>
       <c r="E140" s="1">
-        <v>-7561</v>
+        <v>302339</v>
       </c>
       <c r="F140" s="1">
-        <v>302339</v>
+        <v>-309900</v>
       </c>
       <c r="G140" s="1">
-        <v>309900</v>
-      </c>
-      <c r="H140" s="1">
         <v>657774</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -5090,19 +4670,16 @@
         <v>643395</v>
       </c>
       <c r="E141" s="1">
-        <v>-14750</v>
+        <v>304695</v>
       </c>
       <c r="F141" s="1">
-        <v>304695</v>
+        <v>-319445</v>
       </c>
       <c r="G141" s="1">
-        <v>319445</v>
-      </c>
-      <c r="H141" s="1">
         <v>677727</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -5116,19 +4693,16 @@
         <v>588318</v>
       </c>
       <c r="E142" s="1">
-        <v>-16276</v>
+        <v>293202</v>
       </c>
       <c r="F142" s="1">
-        <v>293202</v>
+        <v>-309478</v>
       </c>
       <c r="G142" s="1">
-        <v>309478</v>
-      </c>
-      <c r="H142" s="1">
         <v>688104</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -5142,19 +4716,16 @@
         <v>593621</v>
       </c>
       <c r="E143" s="1">
-        <v>-4386</v>
+        <v>294729</v>
       </c>
       <c r="F143" s="1">
-        <v>294729</v>
+        <v>-299115</v>
       </c>
       <c r="G143" s="1">
-        <v>299115</v>
-      </c>
-      <c r="H143" s="1">
         <v>703093</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -5168,19 +4739,16 @@
         <v>592954</v>
       </c>
       <c r="E144" s="1">
-        <v>-29647</v>
+        <v>279634</v>
       </c>
       <c r="F144" s="1">
-        <v>279634</v>
+        <v>-309282</v>
       </c>
       <c r="G144" s="1">
-        <v>309282</v>
-      </c>
-      <c r="H144" s="1">
         <v>717344</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -5194,19 +4762,16 @@
         <v>549242</v>
       </c>
       <c r="E145" s="1">
-        <v>-29587</v>
+        <v>265274</v>
       </c>
       <c r="F145" s="1">
-        <v>265274</v>
+        <v>-294861</v>
       </c>
       <c r="G145" s="1">
-        <v>294861</v>
-      </c>
-      <c r="H145" s="1">
         <v>737351</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -5220,19 +4785,16 @@
         <v>565520</v>
       </c>
       <c r="E146" s="1">
-        <v>-24548</v>
+        <v>270703</v>
       </c>
       <c r="F146" s="1">
-        <v>270703</v>
+        <v>-295251</v>
       </c>
       <c r="G146" s="1">
-        <v>295251</v>
-      </c>
-      <c r="H146" s="1">
         <v>747852</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -5246,19 +4808,16 @@
         <v>613783</v>
       </c>
       <c r="E147" s="1">
-        <v>-45434</v>
+        <v>272514</v>
       </c>
       <c r="F147" s="1">
-        <v>272514</v>
+        <v>-317949</v>
       </c>
       <c r="G147" s="1">
-        <v>317949</v>
-      </c>
-      <c r="H147" s="1">
         <v>761061</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -5272,19 +4831,16 @@
         <v>652269</v>
       </c>
       <c r="E148" s="1">
-        <v>-65200</v>
+        <v>278181</v>
       </c>
       <c r="F148" s="1">
-        <v>278181</v>
+        <v>-343381</v>
       </c>
       <c r="G148" s="1">
-        <v>343381</v>
-      </c>
-      <c r="H148" s="1">
         <v>782216</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -5298,19 +4854,16 @@
         <v>718496</v>
       </c>
       <c r="E149" s="1">
-        <v>-71385</v>
+        <v>286587</v>
       </c>
       <c r="F149" s="1">
-        <v>286587</v>
+        <v>-357972</v>
       </c>
       <c r="G149" s="1">
-        <v>357972</v>
-      </c>
-      <c r="H149" s="1">
         <v>775099</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -5324,19 +4877,16 @@
         <v>790872</v>
       </c>
       <c r="E150" s="1">
-        <v>-95004</v>
+        <v>292975</v>
       </c>
       <c r="F150" s="1">
-        <v>292975</v>
+        <v>-387978</v>
       </c>
       <c r="G150" s="1">
-        <v>387978</v>
-      </c>
-      <c r="H150" s="1">
         <v>794021</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -5350,19 +4900,16 @@
         <v>818894</v>
       </c>
       <c r="E151" s="1">
-        <v>-104301</v>
+        <v>302200</v>
       </c>
       <c r="F151" s="1">
-        <v>302200</v>
+        <v>-406501</v>
       </c>
       <c r="G151" s="1">
-        <v>406501</v>
-      </c>
-      <c r="H151" s="1">
         <v>819132</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -5376,19 +4923,16 @@
         <v>838852</v>
       </c>
       <c r="E152" s="1">
-        <v>-103847</v>
+        <v>305744</v>
       </c>
       <c r="F152" s="1">
-        <v>305744</v>
+        <v>-409591</v>
       </c>
       <c r="G152" s="1">
-        <v>409591</v>
-      </c>
-      <c r="H152" s="1">
         <v>835720</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5402,19 +4946,16 @@
         <v>831741</v>
       </c>
       <c r="E153" s="1">
-        <v>-107756</v>
+        <v>308603</v>
       </c>
       <c r="F153" s="1">
-        <v>308603</v>
+        <v>-416359</v>
       </c>
       <c r="G153" s="1">
-        <v>416359</v>
-      </c>
-      <c r="H153" s="1">
         <v>862769</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5428,19 +4969,16 @@
         <v>809865</v>
       </c>
       <c r="E154" s="1">
-        <v>-91298</v>
+        <v>306010</v>
       </c>
       <c r="F154" s="1">
-        <v>306010</v>
+        <v>-397308</v>
       </c>
       <c r="G154" s="1">
-        <v>397308</v>
-      </c>
-      <c r="H154" s="1">
         <v>875592</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5454,19 +4992,16 @@
         <v>827040</v>
       </c>
       <c r="E155" s="1">
-        <v>-114445</v>
+        <v>304126</v>
       </c>
       <c r="F155" s="1">
-        <v>304126</v>
+        <v>-418571</v>
       </c>
       <c r="G155" s="1">
-        <v>418571</v>
-      </c>
-      <c r="H155" s="1">
         <v>900527</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5480,19 +5015,16 @@
         <v>822157</v>
       </c>
       <c r="E156" s="1">
-        <v>-116895</v>
+        <v>297273</v>
       </c>
       <c r="F156" s="1">
-        <v>297273</v>
+        <v>-414168</v>
       </c>
       <c r="G156" s="1">
-        <v>414168</v>
-      </c>
-      <c r="H156" s="1">
         <v>927363</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5506,19 +5038,16 @@
         <v>859545</v>
       </c>
       <c r="E157" s="1">
-        <v>-133434</v>
+        <v>305433</v>
       </c>
       <c r="F157" s="1">
-        <v>305433</v>
+        <v>-438867</v>
       </c>
       <c r="G157" s="1">
-        <v>438867</v>
-      </c>
-      <c r="H157" s="1">
         <v>938584</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5532,19 +5061,16 @@
         <v>863457</v>
       </c>
       <c r="E158" s="1">
-        <v>-126014</v>
+        <v>313404</v>
       </c>
       <c r="F158" s="1">
-        <v>313404</v>
+        <v>-439418</v>
       </c>
       <c r="G158" s="1">
-        <v>439418</v>
-      </c>
-      <c r="H158" s="1">
         <v>946803</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -5558,19 +5084,16 @@
         <v>855237</v>
       </c>
       <c r="E159" s="1">
-        <v>-128872</v>
+        <v>315119</v>
       </c>
       <c r="F159" s="1">
-        <v>315119</v>
+        <v>-443990</v>
       </c>
       <c r="G159" s="1">
-        <v>443990</v>
-      </c>
-      <c r="H159" s="1">
         <v>967519</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -5584,19 +5107,16 @@
         <v>835832</v>
       </c>
       <c r="E160" s="1">
-        <v>-138961</v>
+        <v>320471</v>
       </c>
       <c r="F160" s="1">
-        <v>320471</v>
+        <v>-459432</v>
       </c>
       <c r="G160" s="1">
-        <v>459432</v>
-      </c>
-      <c r="H160" s="1">
         <v>993597</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5610,19 +5130,16 @@
         <v>842063</v>
       </c>
       <c r="E161" s="1">
-        <v>-133629</v>
+        <v>334999</v>
       </c>
       <c r="F161" s="1">
-        <v>334999</v>
+        <v>-468628</v>
       </c>
       <c r="G161" s="1">
-        <v>468628</v>
-      </c>
-      <c r="H161" s="1">
         <v>996385</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5636,19 +5153,16 @@
         <v>871196</v>
       </c>
       <c r="E162" s="1">
-        <v>-141234</v>
+        <v>336451</v>
       </c>
       <c r="F162" s="1">
-        <v>336451</v>
+        <v>-477685</v>
       </c>
       <c r="G162" s="1">
-        <v>477685</v>
-      </c>
-      <c r="H162" s="1">
         <v>1008681</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5662,19 +5176,16 @@
         <v>874588</v>
       </c>
       <c r="E163" s="1">
-        <v>-146977</v>
+        <v>355360</v>
       </c>
       <c r="F163" s="1">
-        <v>355360</v>
+        <v>-502337</v>
       </c>
       <c r="G163" s="1">
-        <v>502337</v>
-      </c>
-      <c r="H163" s="1">
         <v>1025219</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5688,19 +5199,16 @@
         <v>876466</v>
       </c>
       <c r="E164" s="1">
-        <v>-145464</v>
+        <v>371854</v>
       </c>
       <c r="F164" s="1">
-        <v>371854</v>
+        <v>-517318</v>
       </c>
       <c r="G164" s="1">
-        <v>517318</v>
-      </c>
-      <c r="H164" s="1">
         <v>1036195</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5714,19 +5222,16 @@
         <v>946459</v>
       </c>
       <c r="E165" s="1">
-        <v>-145405</v>
+        <v>392107</v>
       </c>
       <c r="F165" s="1">
-        <v>392107</v>
+        <v>-537511</v>
       </c>
       <c r="G165" s="1">
-        <v>537511</v>
-      </c>
-      <c r="H165" s="1">
         <v>1056024</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5740,19 +5245,16 @@
         <v>908569</v>
       </c>
       <c r="E166" s="1">
-        <v>-123987</v>
+        <v>418727</v>
       </c>
       <c r="F166" s="1">
-        <v>418727</v>
+        <v>-542714</v>
       </c>
       <c r="G166" s="1">
-        <v>542714</v>
-      </c>
-      <c r="H166" s="1">
         <v>1056893</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5766,19 +5268,16 @@
         <v>934525</v>
       </c>
       <c r="E167" s="1">
-        <v>-106627</v>
+        <v>439471</v>
       </c>
       <c r="F167" s="1">
-        <v>439471</v>
+        <v>-546098</v>
       </c>
       <c r="G167" s="1">
-        <v>546098</v>
-      </c>
-      <c r="H167" s="1">
         <v>1070421</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5792,19 +5291,16 @@
         <v>942009</v>
       </c>
       <c r="E168" s="1">
-        <v>-99263</v>
+        <v>453586</v>
       </c>
       <c r="F168" s="1">
-        <v>453586</v>
+        <v>-552849</v>
       </c>
       <c r="G168" s="1">
-        <v>552849</v>
-      </c>
-      <c r="H168" s="1">
         <v>1078190</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5818,19 +5314,16 @@
         <v>962748</v>
       </c>
       <c r="E169" s="1">
-        <v>-107694</v>
+        <v>466619</v>
       </c>
       <c r="F169" s="1">
-        <v>466619</v>
+        <v>-574314</v>
       </c>
       <c r="G169" s="1">
-        <v>574314</v>
-      </c>
-      <c r="H169" s="1">
         <v>1109916</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5844,19 +5337,16 @@
         <v>1005487</v>
       </c>
       <c r="E170" s="1">
-        <v>-100965</v>
+        <v>485189</v>
       </c>
       <c r="F170" s="1">
-        <v>485189</v>
+        <v>-586154</v>
       </c>
       <c r="G170" s="1">
-        <v>586154</v>
-      </c>
-      <c r="H170" s="1">
         <v>1116559</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5870,19 +5360,16 @@
         <v>1001047</v>
       </c>
       <c r="E171" s="1">
-        <v>-88160</v>
+        <v>507229</v>
       </c>
       <c r="F171" s="1">
-        <v>507229</v>
+        <v>-595389</v>
       </c>
       <c r="G171" s="1">
-        <v>595389</v>
-      </c>
-      <c r="H171" s="1">
         <v>1145809</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5896,19 +5383,16 @@
         <v>996460</v>
       </c>
       <c r="E172" s="1">
-        <v>-75075</v>
+        <v>509352</v>
       </c>
       <c r="F172" s="1">
-        <v>509352</v>
+        <v>-584427</v>
       </c>
       <c r="G172" s="1">
-        <v>584427</v>
-      </c>
-      <c r="H172" s="1">
         <v>1164580</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5922,19 +5406,16 @@
         <v>995809</v>
       </c>
       <c r="E173" s="1">
-        <v>-82765</v>
+        <v>515387</v>
       </c>
       <c r="F173" s="1">
-        <v>515387</v>
+        <v>-598152</v>
       </c>
       <c r="G173" s="1">
-        <v>598152</v>
-      </c>
-      <c r="H173" s="1">
         <v>1180500</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5948,19 +5429,16 @@
         <v>1010838</v>
       </c>
       <c r="E174" s="1">
-        <v>-88536</v>
+        <v>538232</v>
       </c>
       <c r="F174" s="1">
-        <v>538232</v>
+        <v>-626767</v>
       </c>
       <c r="G174" s="1">
-        <v>626767</v>
-      </c>
-      <c r="H174" s="1">
         <v>1212450</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5974,19 +5452,16 @@
         <v>1014720</v>
       </c>
       <c r="E175" s="1">
-        <v>-68833</v>
+        <v>545925</v>
       </c>
       <c r="F175" s="1">
-        <v>545925</v>
+        <v>-614759</v>
       </c>
       <c r="G175" s="1">
-        <v>614759</v>
-      </c>
-      <c r="H175" s="1">
         <v>1230721</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -6000,19 +5475,16 @@
         <v>1000785</v>
       </c>
       <c r="E176" s="1">
-        <v>-74953</v>
+        <v>555149</v>
       </c>
       <c r="F176" s="1">
-        <v>555149</v>
+        <v>-630102</v>
       </c>
       <c r="G176" s="1">
-        <v>630102</v>
-      </c>
-      <c r="H176" s="1">
         <v>1242584</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -6026,19 +5498,16 @@
         <v>947453</v>
       </c>
       <c r="E177" s="1">
-        <v>-79096</v>
+        <v>568186</v>
       </c>
       <c r="F177" s="1">
-        <v>568186</v>
+        <v>-647282</v>
       </c>
       <c r="G177" s="1">
-        <v>647282</v>
-      </c>
-      <c r="H177" s="1">
         <v>1268467</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -6052,19 +5521,16 @@
         <v>924569</v>
       </c>
       <c r="E178" s="1">
-        <v>-47140</v>
+        <v>573177</v>
       </c>
       <c r="F178" s="1">
-        <v>573177</v>
+        <v>-620317</v>
       </c>
       <c r="G178" s="1">
-        <v>620317</v>
-      </c>
-      <c r="H178" s="1">
         <v>1284187</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -6078,19 +5544,16 @@
         <v>926541</v>
       </c>
       <c r="E179" s="1">
-        <v>-23188</v>
+        <v>590733</v>
       </c>
       <c r="F179" s="1">
-        <v>590733</v>
+        <v>-613921</v>
       </c>
       <c r="G179" s="1">
-        <v>613921</v>
-      </c>
-      <c r="H179" s="1">
         <v>1296577</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -6104,19 +5567,16 @@
         <v>947476</v>
       </c>
       <c r="E180" s="1">
-        <v>-21074</v>
+        <v>600595</v>
       </c>
       <c r="F180" s="1">
-        <v>600595</v>
+        <v>-621669</v>
       </c>
       <c r="G180" s="1">
-        <v>621669</v>
-      </c>
-      <c r="H180" s="1">
         <v>1306265</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -6130,19 +5590,16 @@
         <v>978788</v>
       </c>
       <c r="E181" s="1">
-        <v>-23053</v>
+        <v>615217</v>
       </c>
       <c r="F181" s="1">
-        <v>615217</v>
+        <v>-638270</v>
       </c>
       <c r="G181" s="1">
-        <v>638270</v>
-      </c>
-      <c r="H181" s="1">
         <v>1308774</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -6156,19 +5613,16 @@
         <v>956817</v>
       </c>
       <c r="E182" s="1">
-        <v>-20536</v>
+        <v>625287</v>
       </c>
       <c r="F182" s="1">
-        <v>625287</v>
+        <v>-645823</v>
       </c>
       <c r="G182" s="1">
-        <v>645823</v>
-      </c>
-      <c r="H182" s="1">
         <v>1326421</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -6182,19 +5636,16 @@
         <v>1013084</v>
       </c>
       <c r="E183" s="1">
-        <v>-32788</v>
+        <v>626163</v>
       </c>
       <c r="F183" s="1">
-        <v>626163</v>
+        <v>-658951</v>
       </c>
       <c r="G183" s="1">
-        <v>658951</v>
-      </c>
-      <c r="H183" s="1">
         <v>1334807</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -6208,19 +5659,16 @@
         <v>1024162</v>
       </c>
       <c r="E184" s="1">
-        <v>-38488</v>
+        <v>639365</v>
       </c>
       <c r="F184" s="1">
-        <v>639365</v>
+        <v>-677853</v>
       </c>
       <c r="G184" s="1">
-        <v>677853</v>
-      </c>
-      <c r="H184" s="1">
         <v>1353997</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -6234,19 +5682,16 @@
         <v>1057962</v>
       </c>
       <c r="E185" s="1">
-        <v>-47140</v>
+        <v>641396</v>
       </c>
       <c r="F185" s="1">
-        <v>641396</v>
+        <v>-688536</v>
       </c>
       <c r="G185" s="1">
-        <v>688536</v>
-      </c>
-      <c r="H185" s="1">
         <v>1362775</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -6260,19 +5705,16 @@
         <v>1083829</v>
       </c>
       <c r="E186" s="1">
-        <v>-55704</v>
+        <v>643606</v>
       </c>
       <c r="F186" s="1">
-        <v>643606</v>
+        <v>-699310</v>
       </c>
       <c r="G186" s="1">
-        <v>699310</v>
-      </c>
-      <c r="H186" s="1">
         <v>1351818</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -6286,19 +5728,16 @@
         <v>1094479</v>
       </c>
       <c r="E187" s="1">
-        <v>-63187</v>
+        <v>653094</v>
       </c>
       <c r="F187" s="1">
-        <v>653094</v>
+        <v>-716281</v>
       </c>
       <c r="G187" s="1">
-        <v>716281</v>
-      </c>
-      <c r="H187" s="1">
         <v>1359066</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -6312,19 +5751,16 @@
         <v>1095852</v>
       </c>
       <c r="E188" s="1">
-        <v>-68354</v>
+        <v>650897</v>
       </c>
       <c r="F188" s="1">
-        <v>650897</v>
+        <v>-719251</v>
       </c>
       <c r="G188" s="1">
-        <v>719251</v>
-      </c>
-      <c r="H188" s="1">
         <v>1367411</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -6338,19 +5774,16 @@
         <v>1153142</v>
       </c>
       <c r="E189" s="1">
-        <v>-73449</v>
+        <v>671600</v>
       </c>
       <c r="F189" s="1">
-        <v>671600</v>
+        <v>-745049</v>
       </c>
       <c r="G189" s="1">
-        <v>745049</v>
-      </c>
-      <c r="H189" s="1">
         <v>1381394</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -6364,19 +5797,16 @@
         <v>1201675</v>
       </c>
       <c r="E190" s="1">
-        <v>-80595</v>
+        <v>681232</v>
       </c>
       <c r="F190" s="1">
-        <v>681232</v>
+        <v>-761827</v>
       </c>
       <c r="G190" s="1">
-        <v>761827</v>
-      </c>
-      <c r="H190" s="1">
         <v>1373350</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -6390,19 +5820,16 @@
         <v>1264948</v>
       </c>
       <c r="E191" s="1">
-        <v>-90572</v>
+        <v>706988</v>
       </c>
       <c r="F191" s="1">
-        <v>706988</v>
+        <v>-797560</v>
       </c>
       <c r="G191" s="1">
-        <v>797560</v>
-      </c>
-      <c r="H191" s="1">
         <v>1389392</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -6416,19 +5843,16 @@
         <v>1251749</v>
       </c>
       <c r="E192" s="1">
-        <v>-96868</v>
+        <v>736883</v>
       </c>
       <c r="F192" s="1">
-        <v>736883</v>
+        <v>-833751</v>
       </c>
       <c r="G192" s="1">
-        <v>833751</v>
-      </c>
-      <c r="H192" s="1">
         <v>1423432</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -6442,19 +5866,16 @@
         <v>1307566</v>
       </c>
       <c r="E193" s="1">
-        <v>-101913</v>
+        <v>758646</v>
       </c>
       <c r="F193" s="1">
-        <v>758646</v>
+        <v>-860559</v>
       </c>
       <c r="G193" s="1">
-        <v>860559</v>
-      </c>
-      <c r="H193" s="1">
         <v>1422923</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -6468,19 +5889,16 @@
         <v>1327586</v>
       </c>
       <c r="E194" s="1">
-        <v>-105329</v>
+        <v>781570</v>
       </c>
       <c r="F194" s="1">
-        <v>781570</v>
+        <v>-886899</v>
       </c>
       <c r="G194" s="1">
-        <v>886899</v>
-      </c>
-      <c r="H194" s="1">
         <v>1437596</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -6494,19 +5912,16 @@
         <v>1303988</v>
       </c>
       <c r="E195" s="1">
-        <v>-109492</v>
+        <v>798851</v>
       </c>
       <c r="F195" s="1">
-        <v>798851</v>
+        <v>-908343</v>
       </c>
       <c r="G195" s="1">
-        <v>908343</v>
-      </c>
-      <c r="H195" s="1">
         <v>1452892</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -6520,19 +5935,16 @@
         <v>1303248</v>
       </c>
       <c r="E196" s="1">
-        <v>-74444</v>
+        <v>831399</v>
       </c>
       <c r="F196" s="1">
-        <v>831399</v>
+        <v>-905843</v>
       </c>
       <c r="G196" s="1">
-        <v>905843</v>
-      </c>
-      <c r="H196" s="1">
         <v>1455659</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -6546,19 +5958,16 @@
         <v>1335135</v>
       </c>
       <c r="E197" s="1">
-        <v>-69780</v>
+        <v>839421</v>
       </c>
       <c r="F197" s="1">
-        <v>839421</v>
+        <v>-909201</v>
       </c>
       <c r="G197" s="1">
-        <v>909201</v>
-      </c>
-      <c r="H197" s="1">
         <v>1451575</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -6572,19 +5981,16 @@
         <v>1355353</v>
       </c>
       <c r="E198" s="1">
-        <v>-88795</v>
+        <v>847940</v>
       </c>
       <c r="F198" s="1">
-        <v>847940</v>
+        <v>-936735</v>
       </c>
       <c r="G198" s="1">
-        <v>936735</v>
-      </c>
-      <c r="H198" s="1">
         <v>1471295</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -6598,19 +6004,16 @@
         <v>1418388</v>
       </c>
       <c r="E199" s="1">
-        <v>-93709</v>
+        <v>859042</v>
       </c>
       <c r="F199" s="1">
-        <v>859042</v>
+        <v>-952751</v>
       </c>
       <c r="G199" s="1">
-        <v>952751</v>
-      </c>
-      <c r="H199" s="1">
         <v>1487662</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -6624,19 +6027,16 @@
         <v>1474350</v>
       </c>
       <c r="E200" s="1">
-        <v>-114180</v>
+        <v>859577</v>
       </c>
       <c r="F200" s="1">
-        <v>859577</v>
+        <v>-973757</v>
       </c>
       <c r="G200" s="1">
-        <v>973757</v>
-      </c>
-      <c r="H200" s="1">
         <v>1496733</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -6650,19 +6050,16 @@
         <v>1480128</v>
       </c>
       <c r="E201" s="1">
-        <v>-88822</v>
+        <v>903798</v>
       </c>
       <c r="F201" s="1">
-        <v>903798</v>
+        <v>-992620</v>
       </c>
       <c r="G201" s="1">
-        <v>992620</v>
-      </c>
-      <c r="H201" s="1">
         <v>1515702</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -6676,19 +6073,16 @@
         <v>1522404</v>
       </c>
       <c r="E202" s="1">
-        <v>-108839</v>
+        <v>918374</v>
       </c>
       <c r="F202" s="1">
-        <v>918374</v>
+        <v>-1027213</v>
       </c>
       <c r="G202" s="1">
-        <v>1027213</v>
-      </c>
-      <c r="H202" s="1">
         <v>1515985</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -6702,19 +6096,16 @@
         <v>1590218</v>
       </c>
       <c r="E203" s="1">
-        <v>-85201</v>
+        <v>954450</v>
       </c>
       <c r="F203" s="1">
-        <v>954450</v>
+        <v>-1039651</v>
       </c>
       <c r="G203" s="1">
-        <v>1039651</v>
-      </c>
-      <c r="H203" s="1">
         <v>1542541</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -6728,19 +6119,16 @@
         <v>1625251</v>
       </c>
       <c r="E204" s="1">
-        <v>-96831</v>
+        <v>974057</v>
       </c>
       <c r="F204" s="1">
-        <v>974057</v>
+        <v>-1070888</v>
       </c>
       <c r="G204" s="1">
-        <v>1070888</v>
-      </c>
-      <c r="H204" s="1">
         <v>1555224</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -6754,19 +6142,16 @@
         <v>1644529</v>
       </c>
       <c r="E205" s="1">
-        <v>-117014</v>
+        <v>968330</v>
       </c>
       <c r="F205" s="1">
-        <v>968330</v>
+        <v>-1085344</v>
       </c>
       <c r="G205" s="1">
-        <v>1085344</v>
-      </c>
-      <c r="H205" s="1">
         <v>1574782</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -6780,19 +6165,16 @@
         <v>1712324</v>
       </c>
       <c r="E206" s="1">
-        <v>-135215</v>
+        <v>963021</v>
       </c>
       <c r="F206" s="1">
-        <v>963021</v>
+        <v>-1098236</v>
       </c>
       <c r="G206" s="1">
-        <v>1098236</v>
-      </c>
-      <c r="H206" s="1">
         <v>1568029</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -6806,19 +6188,16 @@
         <v>1695773</v>
       </c>
       <c r="E207" s="1">
-        <v>-162331</v>
+        <v>947295</v>
       </c>
       <c r="F207" s="1">
-        <v>947295</v>
+        <v>-1109626</v>
       </c>
       <c r="G207" s="1">
-        <v>1109626</v>
-      </c>
-      <c r="H207" s="1">
         <v>1603691</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -6832,19 +6211,16 @@
         <v>1741623</v>
       </c>
       <c r="E208" s="1">
-        <v>-174634</v>
+        <v>935263</v>
       </c>
       <c r="F208" s="1">
-        <v>935263</v>
+        <v>-1109897</v>
       </c>
       <c r="G208" s="1">
-        <v>1109897</v>
-      </c>
-      <c r="H208" s="1">
         <v>1627262</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -6858,19 +6234,16 @@
         <v>1796964</v>
       </c>
       <c r="E209" s="1">
-        <v>-178663</v>
+        <v>966337</v>
       </c>
       <c r="F209" s="1">
-        <v>966337</v>
+        <v>-1145000</v>
       </c>
       <c r="G209" s="1">
-        <v>1145000</v>
-      </c>
-      <c r="H209" s="1">
         <v>1647452</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -6884,19 +6257,16 @@
         <v>1853063</v>
       </c>
       <c r="E210" s="1">
-        <v>-212559</v>
+        <v>960764</v>
       </c>
       <c r="F210" s="1">
-        <v>960764</v>
+        <v>-1173324</v>
       </c>
       <c r="G210" s="1">
-        <v>1173324</v>
-      </c>
-      <c r="H210" s="1">
         <v>1669139</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -6910,19 +6280,16 @@
         <v>1848341</v>
       </c>
       <c r="E211" s="1">
-        <v>-247530</v>
+        <v>974597</v>
       </c>
       <c r="F211" s="1">
-        <v>974597</v>
+        <v>-1222126</v>
       </c>
       <c r="G211" s="1">
-        <v>1222126</v>
-      </c>
-      <c r="H211" s="1">
         <v>1694757</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -6936,19 +6303,16 @@
         <v>1893735</v>
       </c>
       <c r="E212" s="1">
-        <v>-276403</v>
+        <v>1005309</v>
       </c>
       <c r="F212" s="1">
-        <v>1005309</v>
+        <v>-1281712</v>
       </c>
       <c r="G212" s="1">
-        <v>1281712</v>
-      </c>
-      <c r="H212" s="1">
         <v>1733984</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -6962,19 +6326,16 @@
         <v>1953097</v>
       </c>
       <c r="E213" s="1">
-        <v>-301708</v>
+        <v>1030971</v>
       </c>
       <c r="F213" s="1">
-        <v>1030971</v>
+        <v>-1332679</v>
       </c>
       <c r="G213" s="1">
-        <v>1332679</v>
-      </c>
-      <c r="H213" s="1">
         <v>1781740</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -6988,19 +6349,16 @@
         <v>1950650</v>
       </c>
       <c r="E214" s="1">
-        <v>-356583</v>
+        <v>1052904</v>
       </c>
       <c r="F214" s="1">
-        <v>1052904</v>
+        <v>-1409487</v>
       </c>
       <c r="G214" s="1">
-        <v>1409487</v>
-      </c>
-      <c r="H214" s="1">
         <v>1789895</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -7014,19 +6372,16 @@
         <v>2075786</v>
       </c>
       <c r="E215" s="1">
-        <v>-362501</v>
+        <v>1093360</v>
       </c>
       <c r="F215" s="1">
-        <v>1093360</v>
+        <v>-1455860</v>
       </c>
       <c r="G215" s="1">
-        <v>1455860</v>
-      </c>
-      <c r="H215" s="1">
         <v>1822524</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -7040,19 +6395,16 @@
         <v>2059969</v>
       </c>
       <c r="E216" s="1">
-        <v>-393867</v>
+        <v>1125002</v>
       </c>
       <c r="F216" s="1">
-        <v>1125002</v>
+        <v>-1518869</v>
       </c>
       <c r="G216" s="1">
-        <v>1518869</v>
-      </c>
-      <c r="H216" s="1">
         <v>1832078</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -7066,19 +6418,16 @@
         <v>2067227</v>
       </c>
       <c r="E217" s="1">
-        <v>-411343</v>
+        <v>1113177</v>
       </c>
       <c r="F217" s="1">
-        <v>1113177</v>
+        <v>-1524520</v>
       </c>
       <c r="G217" s="1">
-        <v>1524520</v>
-      </c>
-      <c r="H217" s="1">
         <v>1861253</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -7092,19 +6441,16 @@
         <v>1971333</v>
       </c>
       <c r="E218" s="1">
-        <v>-402653</v>
+        <v>1096812</v>
       </c>
       <c r="F218" s="1">
-        <v>1096812</v>
+        <v>-1499464</v>
       </c>
       <c r="G218" s="1">
-        <v>1499464</v>
-      </c>
-      <c r="H218" s="1">
         <v>1906253</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -7118,19 +6464,16 @@
         <v>1973033</v>
       </c>
       <c r="E219" s="1">
-        <v>-364015</v>
+        <v>1058013</v>
       </c>
       <c r="F219" s="1">
-        <v>1058013</v>
+        <v>-1422028</v>
       </c>
       <c r="G219" s="1">
-        <v>1422028</v>
-      </c>
-      <c r="H219" s="1">
         <v>1947731</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -7144,19 +6487,16 @@
         <v>1944909</v>
       </c>
       <c r="E220" s="1">
-        <v>-370634</v>
+        <v>998902</v>
       </c>
       <c r="F220" s="1">
-        <v>998902</v>
+        <v>-1369536</v>
       </c>
       <c r="G220" s="1">
-        <v>1369536</v>
-      </c>
-      <c r="H220" s="1">
         <v>1953408</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -7170,19 +6510,16 @@
         <v>1850091</v>
       </c>
       <c r="E221" s="1">
-        <v>-369688</v>
+        <v>953520</v>
       </c>
       <c r="F221" s="1">
-        <v>953520</v>
+        <v>-1323208</v>
       </c>
       <c r="G221" s="1">
-        <v>1323208</v>
-      </c>
-      <c r="H221" s="1">
         <v>1992742</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -7196,19 +6533,16 @@
         <v>1912659</v>
       </c>
       <c r="E222" s="1">
-        <v>-386884</v>
+        <v>969157</v>
       </c>
       <c r="F222" s="1">
-        <v>969157</v>
+        <v>-1356041</v>
       </c>
       <c r="G222" s="1">
-        <v>1356041</v>
-      </c>
-      <c r="H222" s="1">
         <v>2040010</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -7222,19 +6556,16 @@
         <v>1933282</v>
       </c>
       <c r="E223" s="1">
-        <v>-428259</v>
+        <v>1004154</v>
       </c>
       <c r="F223" s="1">
-        <v>1004154</v>
+        <v>-1432413</v>
       </c>
       <c r="G223" s="1">
-        <v>1432413</v>
-      </c>
-      <c r="H223" s="1">
         <v>2074482</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -7248,19 +6579,16 @@
         <v>1933197</v>
       </c>
       <c r="E224" s="1">
-        <v>-447548</v>
+        <v>1015560</v>
       </c>
       <c r="F224" s="1">
-        <v>1015560</v>
+        <v>-1463107</v>
       </c>
       <c r="G224" s="1">
-        <v>1463107</v>
-      </c>
-      <c r="H224" s="1">
         <v>2101256</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -7274,19 +6602,16 @@
         <v>1942531</v>
       </c>
       <c r="E225" s="1">
-        <v>-496289</v>
+        <v>1003046</v>
       </c>
       <c r="F225" s="1">
-        <v>1003046</v>
+        <v>-1499335</v>
       </c>
       <c r="G225" s="1">
-        <v>1499335</v>
-      </c>
-      <c r="H225" s="1">
         <v>2142232</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -7300,19 +6625,16 @@
         <v>1960221</v>
       </c>
       <c r="E226" s="1">
-        <v>-525262</v>
+        <v>1004201</v>
       </c>
       <c r="F226" s="1">
-        <v>1004201</v>
+        <v>-1529463</v>
       </c>
       <c r="G226" s="1">
-        <v>1529463</v>
-      </c>
-      <c r="H226" s="1">
         <v>2172010</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -7326,19 +6648,16 @@
         <v>1972386</v>
       </c>
       <c r="E227" s="1">
-        <v>-519870</v>
+        <v>1007465</v>
       </c>
       <c r="F227" s="1">
-        <v>1007465</v>
+        <v>-1527336</v>
       </c>
       <c r="G227" s="1">
-        <v>1527336</v>
-      </c>
-      <c r="H227" s="1">
         <v>2198793</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -7352,19 +6671,16 @@
         <v>2044304</v>
       </c>
       <c r="E228" s="1">
-        <v>-518994</v>
+        <v>1037310</v>
       </c>
       <c r="F228" s="1">
-        <v>1037310</v>
+        <v>-1556304</v>
       </c>
       <c r="G228" s="1">
-        <v>1556304</v>
-      </c>
-      <c r="H228" s="1">
         <v>2220432</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -7378,19 +6694,16 @@
         <v>2131311</v>
       </c>
       <c r="E229" s="1">
-        <v>-523694</v>
+        <v>1091682</v>
       </c>
       <c r="F229" s="1">
-        <v>1091682</v>
+        <v>-1615376</v>
       </c>
       <c r="G229" s="1">
-        <v>1615376</v>
-      </c>
-      <c r="H229" s="1">
         <v>2251164</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -7404,19 +6717,16 @@
         <v>2154052</v>
       </c>
       <c r="E230" s="1">
-        <v>-565975</v>
+        <v>1133669</v>
       </c>
       <c r="F230" s="1">
-        <v>1133669</v>
+        <v>-1699644</v>
       </c>
       <c r="G230" s="1">
-        <v>1699644</v>
-      </c>
-      <c r="H230" s="1">
         <v>2286594</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -7430,19 +6740,16 @@
         <v>2262607</v>
       </c>
       <c r="E231" s="1">
-        <v>-617581</v>
+        <v>1170152</v>
       </c>
       <c r="F231" s="1">
-        <v>1170152</v>
+        <v>-1787734</v>
       </c>
       <c r="G231" s="1">
-        <v>1787734</v>
-      </c>
-      <c r="H231" s="1">
         <v>2320682</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -7456,19 +6763,16 @@
         <v>2318272</v>
       </c>
       <c r="E232" s="1">
-        <v>-652672</v>
+        <v>1180185</v>
       </c>
       <c r="F232" s="1">
-        <v>1180185</v>
+        <v>-1832856</v>
       </c>
       <c r="G232" s="1">
-        <v>1832856</v>
-      </c>
-      <c r="H232" s="1">
         <v>2356371</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -7482,19 +6786,16 @@
         <v>2390082</v>
       </c>
       <c r="E233" s="1">
-        <v>-700336</v>
+        <v>1221444</v>
       </c>
       <c r="F233" s="1">
-        <v>1221444</v>
+        <v>-1921780</v>
       </c>
       <c r="G233" s="1">
-        <v>1921780</v>
-      </c>
-      <c r="H233" s="1">
         <v>2388847</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -7508,19 +6809,16 @@
         <v>2486068</v>
       </c>
       <c r="E234" s="1">
-        <v>-696655</v>
+        <v>1258408</v>
       </c>
       <c r="F234" s="1">
-        <v>1258408</v>
+        <v>-1955063</v>
       </c>
       <c r="G234" s="1">
-        <v>1955063</v>
-      </c>
-      <c r="H234" s="1">
         <v>2426138</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -7534,19 +6832,16 @@
         <v>2476474</v>
       </c>
       <c r="E235" s="1">
-        <v>-707210</v>
+        <v>1294853</v>
       </c>
       <c r="F235" s="1">
-        <v>1294853</v>
+        <v>-2002063</v>
       </c>
       <c r="G235" s="1">
-        <v>2002063</v>
-      </c>
-      <c r="H235" s="1">
         <v>2452246</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -7560,19 +6855,16 @@
         <v>2531076</v>
       </c>
       <c r="E236" s="1">
-        <v>-750961</v>
+        <v>1302315</v>
       </c>
       <c r="F236" s="1">
-        <v>1302315</v>
+        <v>-2053275</v>
       </c>
       <c r="G236" s="1">
-        <v>2053275</v>
-      </c>
-      <c r="H236" s="1">
         <v>2494438</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -7586,19 +6878,16 @@
         <v>2645263</v>
       </c>
       <c r="E237" s="1">
-        <v>-804786</v>
+        <v>1350743</v>
       </c>
       <c r="F237" s="1">
-        <v>1350743</v>
+        <v>-2155529</v>
       </c>
       <c r="G237" s="1">
-        <v>2155529</v>
-      </c>
-      <c r="H237" s="1">
         <v>2528432</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -7612,19 +6901,16 @@
         <v>2709740</v>
       </c>
       <c r="E238" s="1">
-        <v>-790818</v>
+        <v>1413966</v>
       </c>
       <c r="F238" s="1">
-        <v>1413966</v>
+        <v>-2204784</v>
       </c>
       <c r="G238" s="1">
-        <v>2204784</v>
-      </c>
-      <c r="H238" s="1">
         <v>2580086</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -7638,19 +6924,16 @@
         <v>2709252</v>
       </c>
       <c r="E239" s="1">
-        <v>-794042</v>
+        <v>1459767</v>
       </c>
       <c r="F239" s="1">
-        <v>1459767</v>
+        <v>-2253809</v>
       </c>
       <c r="G239" s="1">
-        <v>2253809</v>
-      </c>
-      <c r="H239" s="1">
         <v>2610565</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -7664,19 +6947,16 @@
         <v>2709420</v>
       </c>
       <c r="E240" s="1">
-        <v>-823284</v>
+        <v>1475417</v>
       </c>
       <c r="F240" s="1">
-        <v>1475417</v>
+        <v>-2298702</v>
       </c>
       <c r="G240" s="1">
-        <v>2298702</v>
-      </c>
-      <c r="H240" s="1">
         <v>2630280</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -7690,19 +6970,16 @@
         <v>2675406</v>
       </c>
       <c r="E241" s="1">
-        <v>-737668</v>
+        <v>1531531</v>
       </c>
       <c r="F241" s="1">
-        <v>1531531</v>
+        <v>-2269198</v>
       </c>
       <c r="G241" s="1">
-        <v>2269198</v>
-      </c>
-      <c r="H241" s="1">
         <v>2674454</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -7716,19 +6993,16 @@
         <v>2664295</v>
       </c>
       <c r="E242" s="1">
-        <v>-739273</v>
+        <v>1577991</v>
       </c>
       <c r="F242" s="1">
-        <v>1577991</v>
+        <v>-2317264</v>
       </c>
       <c r="G242" s="1">
-        <v>2317264</v>
-      </c>
-      <c r="H242" s="1">
         <v>2718491</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -7742,19 +7016,16 @@
         <v>2699217</v>
       </c>
       <c r="E243" s="1">
-        <v>-745806</v>
+        <v>1622764</v>
       </c>
       <c r="F243" s="1">
-        <v>1622764</v>
+        <v>-2368569</v>
       </c>
       <c r="G243" s="1">
-        <v>2368569</v>
-      </c>
-      <c r="H243" s="1">
         <v>2769958</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -7768,19 +7039,16 @@
         <v>2685969</v>
       </c>
       <c r="E244" s="1">
-        <v>-728954</v>
+        <v>1685710</v>
       </c>
       <c r="F244" s="1">
-        <v>1685710</v>
+        <v>-2414664</v>
       </c>
       <c r="G244" s="1">
-        <v>2414664</v>
-      </c>
-      <c r="H244" s="1">
         <v>2808718</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -7794,19 +7062,16 @@
         <v>2642560</v>
       </c>
       <c r="E245" s="1">
-        <v>-729699</v>
+        <v>1750714</v>
       </c>
       <c r="F245" s="1">
-        <v>1750714</v>
+        <v>-2480413</v>
       </c>
       <c r="G245" s="1">
-        <v>2480413</v>
-      </c>
-      <c r="H245" s="1">
         <v>2865057</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -7820,19 +7085,16 @@
         <v>2563701</v>
       </c>
       <c r="E246" s="1">
-        <v>-771248</v>
+        <v>1813321</v>
       </c>
       <c r="F246" s="1">
-        <v>1813321</v>
+        <v>-2584568</v>
       </c>
       <c r="G246" s="1">
-        <v>2584568</v>
-      </c>
-      <c r="H246" s="1">
         <v>2909640</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -7846,19 +7108,16 @@
         <v>2540595</v>
       </c>
       <c r="E247" s="1">
-        <v>-776404</v>
+        <v>1905282</v>
       </c>
       <c r="F247" s="1">
-        <v>1905282</v>
+        <v>-2681686</v>
       </c>
       <c r="G247" s="1">
-        <v>2681686</v>
-      </c>
-      <c r="H247" s="1">
         <v>2971642</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -7872,19 +7131,16 @@
         <v>2498242</v>
       </c>
       <c r="E248" s="1">
-        <v>-787354</v>
+        <v>1922215</v>
       </c>
       <c r="F248" s="1">
-        <v>1922215</v>
+        <v>-2709569</v>
       </c>
       <c r="G248" s="1">
-        <v>2709569</v>
-      </c>
-      <c r="H248" s="1">
         <v>3029032</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -7898,19 +7154,16 @@
         <v>2307915</v>
       </c>
       <c r="E249" s="1">
-        <v>-628474</v>
+        <v>1700304</v>
       </c>
       <c r="F249" s="1">
-        <v>1700304</v>
+        <v>-2328779</v>
       </c>
       <c r="G249" s="1">
-        <v>2328779</v>
-      </c>
-      <c r="H249" s="1">
         <v>3021826</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -7924,19 +7177,16 @@
         <v>2014878</v>
       </c>
       <c r="E250" s="1">
-        <v>-420992</v>
+        <v>1511768</v>
       </c>
       <c r="F250" s="1">
-        <v>1511768</v>
+        <v>-1932761</v>
       </c>
       <c r="G250" s="1">
-        <v>1932761</v>
-      </c>
-      <c r="H250" s="1">
         <v>3022047</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -7950,19 +7200,16 @@
         <v>1863650</v>
       </c>
       <c r="E251" s="1">
-        <v>-358368</v>
+        <v>1521093</v>
       </c>
       <c r="F251" s="1">
-        <v>1521093</v>
+        <v>-1879461</v>
       </c>
       <c r="G251" s="1">
-        <v>1879461</v>
-      </c>
-      <c r="H251" s="1">
         <v>3070452</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -7976,19 +7223,16 @@
         <v>1841416</v>
       </c>
       <c r="E252" s="1">
-        <v>-423998</v>
+        <v>1594725</v>
       </c>
       <c r="F252" s="1">
-        <v>1594725</v>
+        <v>-2018722</v>
       </c>
       <c r="G252" s="1">
-        <v>2018722</v>
-      </c>
-      <c r="H252" s="1">
         <v>3092058</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -8002,19 +7246,16 @@
         <v>1998710</v>
       </c>
       <c r="E253" s="1">
-        <v>-473254</v>
+        <v>1703508</v>
       </c>
       <c r="F253" s="1">
-        <v>1703508</v>
+        <v>-2176763</v>
       </c>
       <c r="G253" s="1">
-        <v>2176763</v>
-      </c>
-      <c r="H253" s="1">
         <v>3120796</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -8028,19 +7269,16 @@
         <v>2038161</v>
       </c>
       <c r="E254" s="1">
-        <v>-509192</v>
+        <v>1759877</v>
       </c>
       <c r="F254" s="1">
-        <v>1759877</v>
+        <v>-2269069</v>
       </c>
       <c r="G254" s="1">
-        <v>2269069</v>
-      </c>
-      <c r="H254" s="1">
         <v>3133819</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -8054,19 +7292,16 @@
         <v>2148795</v>
       </c>
       <c r="E255" s="1">
-        <v>-542514</v>
+        <v>1819741</v>
       </c>
       <c r="F255" s="1">
-        <v>1819741</v>
+        <v>-2362255</v>
       </c>
       <c r="G255" s="1">
-        <v>2362255</v>
-      </c>
-      <c r="H255" s="1">
         <v>3165768</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -8080,19 +7315,16 @@
         <v>2236495</v>
       </c>
       <c r="E256" s="1">
-        <v>-553943</v>
+        <v>1877253</v>
       </c>
       <c r="F256" s="1">
-        <v>1877253</v>
+        <v>-2431195</v>
       </c>
       <c r="G256" s="1">
-        <v>2431195</v>
-      </c>
-      <c r="H256" s="1">
         <v>3158301</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -8106,19 +7338,16 @@
         <v>2238440</v>
       </c>
       <c r="E257" s="1">
-        <v>-523586</v>
+        <v>1972116</v>
       </c>
       <c r="F257" s="1">
-        <v>1972116</v>
+        <v>-2495702</v>
       </c>
       <c r="G257" s="1">
-        <v>2495702</v>
-      </c>
-      <c r="H257" s="1">
         <v>3164317</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -8132,19 +7361,16 @@
         <v>2205962</v>
       </c>
       <c r="E258" s="1">
-        <v>-568476</v>
+        <v>2040407</v>
       </c>
       <c r="F258" s="1">
-        <v>2040407</v>
+        <v>-2608884</v>
       </c>
       <c r="G258" s="1">
-        <v>2608884</v>
-      </c>
-      <c r="H258" s="1">
         <v>3155768</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -8158,19 +7384,16 @@
         <v>2297352</v>
       </c>
       <c r="E259" s="1">
-        <v>-581092</v>
+        <v>2116132</v>
       </c>
       <c r="F259" s="1">
-        <v>2116132</v>
+        <v>-2697224</v>
       </c>
       <c r="G259" s="1">
-        <v>2697224</v>
-      </c>
-      <c r="H259" s="1">
         <v>3168261</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -8184,19 +7407,16 @@
         <v>2322840</v>
       </c>
       <c r="E260" s="1">
-        <v>-567111</v>
+        <v>2156793</v>
       </c>
       <c r="F260" s="1">
-        <v>2156793</v>
+        <v>-2723903</v>
       </c>
       <c r="G260" s="1">
-        <v>2723903</v>
-      </c>
-      <c r="H260" s="1">
         <v>3136922</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -8210,19 +7430,16 @@
         <v>2504095</v>
       </c>
       <c r="E261" s="1">
-        <v>-601788</v>
+        <v>2150123</v>
       </c>
       <c r="F261" s="1">
-        <v>2150123</v>
+        <v>-2751911</v>
       </c>
       <c r="G261" s="1">
-        <v>2751911</v>
-      </c>
-      <c r="H261" s="1">
         <v>3130765</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -8236,19 +7453,16 @@
         <v>2567750</v>
       </c>
       <c r="E262" s="1">
-        <v>-602271</v>
+        <v>2189981</v>
       </c>
       <c r="F262" s="1">
-        <v>2189981</v>
+        <v>-2792253</v>
       </c>
       <c r="G262" s="1">
-        <v>2792253</v>
-      </c>
-      <c r="H262" s="1">
         <v>3144024</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -8262,19 +7476,16 @@
         <v>2636863</v>
       </c>
       <c r="E263" s="1">
-        <v>-565241</v>
+        <v>2215586</v>
       </c>
       <c r="F263" s="1">
-        <v>2215586</v>
+        <v>-2780827</v>
       </c>
       <c r="G263" s="1">
-        <v>2780827</v>
-      </c>
-      <c r="H263" s="1">
         <v>3130438</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -8288,19 +7499,16 @@
         <v>2644119</v>
       </c>
       <c r="E264" s="1">
-        <v>-523083</v>
+        <v>2227734</v>
       </c>
       <c r="F264" s="1">
-        <v>2227734</v>
+        <v>-2750817</v>
       </c>
       <c r="G264" s="1">
-        <v>2750817</v>
-      </c>
-      <c r="H264" s="1">
         <v>3139112</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -8314,19 +7522,16 @@
         <v>2638282</v>
       </c>
       <c r="E265" s="1">
-        <v>-515874</v>
+        <v>2237498</v>
       </c>
       <c r="F265" s="1">
-        <v>2237498</v>
+        <v>-2753373</v>
       </c>
       <c r="G265" s="1">
-        <v>2753373</v>
-      </c>
-      <c r="H265" s="1">
         <v>3132308</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -8340,19 +7545,16 @@
         <v>2746420</v>
       </c>
       <c r="E266" s="1">
-        <v>-499348</v>
+        <v>2255929</v>
       </c>
       <c r="F266" s="1">
-        <v>2255929</v>
+        <v>-2755277</v>
       </c>
       <c r="G266" s="1">
-        <v>2755277</v>
-      </c>
-      <c r="H266" s="1">
         <v>3123454</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -8366,19 +7568,16 @@
         <v>2780242</v>
       </c>
       <c r="E267" s="1">
-        <v>-498380</v>
+        <v>2261403</v>
       </c>
       <c r="F267" s="1">
-        <v>2261403</v>
+        <v>-2759783</v>
       </c>
       <c r="G267" s="1">
-        <v>2759783</v>
-      </c>
-      <c r="H267" s="1">
         <v>3131143</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -8392,19 +7591,16 @@
         <v>2892354</v>
       </c>
       <c r="E268" s="1">
-        <v>-482067</v>
+        <v>2285116</v>
       </c>
       <c r="F268" s="1">
-        <v>2285116</v>
+        <v>-2767183</v>
       </c>
       <c r="G268" s="1">
-        <v>2767183</v>
-      </c>
-      <c r="H268" s="1">
         <v>3135192</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -8418,19 +7614,16 @@
         <v>2934291</v>
       </c>
       <c r="E269" s="1">
-        <v>-434019</v>
+        <v>2349240</v>
       </c>
       <c r="F269" s="1">
-        <v>2349240</v>
+        <v>-2783259</v>
       </c>
       <c r="G269" s="1">
-        <v>2783259</v>
-      </c>
-      <c r="H269" s="1">
         <v>3140517</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -8444,19 +7637,16 @@
         <v>2922765</v>
       </c>
       <c r="E270" s="1">
-        <v>-510088</v>
+        <v>2343602</v>
       </c>
       <c r="F270" s="1">
-        <v>2343602</v>
+        <v>-2853690</v>
       </c>
       <c r="G270" s="1">
-        <v>2853690</v>
-      </c>
-      <c r="H270" s="1">
         <v>3139060</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -8470,19 +7660,16 @@
         <v>3059096</v>
       </c>
       <c r="E271" s="1">
-        <v>-505404</v>
+        <v>2395168</v>
       </c>
       <c r="F271" s="1">
-        <v>2395168</v>
+        <v>-2900572</v>
       </c>
       <c r="G271" s="1">
-        <v>2900572</v>
-      </c>
-      <c r="H271" s="1">
         <v>3154366</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -8496,19 +7683,16 @@
         <v>3142047</v>
       </c>
       <c r="E272" s="1">
-        <v>-489357</v>
+        <v>2399191</v>
       </c>
       <c r="F272" s="1">
-        <v>2399191</v>
+        <v>-2888549</v>
       </c>
       <c r="G272" s="1">
-        <v>2888549</v>
-      </c>
-      <c r="H272" s="1">
         <v>3191749</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -8522,19 +7706,16 @@
         <v>3172016</v>
       </c>
       <c r="E273" s="1">
-        <v>-530751</v>
+        <v>2376218</v>
       </c>
       <c r="F273" s="1">
-        <v>2376218</v>
+        <v>-2906969</v>
       </c>
       <c r="G273" s="1">
-        <v>2906969</v>
-      </c>
-      <c r="H273" s="1">
         <v>3189253</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -8548,19 +7729,16 @@
         <v>3282283</v>
       </c>
       <c r="E274" s="1">
-        <v>-526432</v>
+        <v>2299045</v>
       </c>
       <c r="F274" s="1">
-        <v>2299045</v>
+        <v>-2825476</v>
       </c>
       <c r="G274" s="1">
-        <v>2825476</v>
-      </c>
-      <c r="H274" s="1">
         <v>3187915</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -8574,19 +7752,16 @@
         <v>3291104</v>
       </c>
       <c r="E275" s="1">
-        <v>-509527</v>
+        <v>2300441</v>
       </c>
       <c r="F275" s="1">
-        <v>2300441</v>
+        <v>-2809968</v>
       </c>
       <c r="G275" s="1">
-        <v>2809968</v>
-      </c>
-      <c r="H275" s="1">
         <v>3234067</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -8600,19 +7775,16 @@
         <v>3303660</v>
       </c>
       <c r="E276" s="1">
-        <v>-538082</v>
+        <v>2260724</v>
       </c>
       <c r="F276" s="1">
-        <v>2260724</v>
+        <v>-2798806</v>
       </c>
       <c r="G276" s="1">
-        <v>2798806</v>
-      </c>
-      <c r="H276" s="1">
         <v>3253554</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -8626,19 +7798,16 @@
         <v>3276879</v>
       </c>
       <c r="E277" s="1">
-        <v>-523238</v>
+        <v>2222279</v>
       </c>
       <c r="F277" s="1">
-        <v>2222279</v>
+        <v>-2745517</v>
       </c>
       <c r="G277" s="1">
-        <v>2745517</v>
-      </c>
-      <c r="H277" s="1">
         <v>3258142</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -8652,19 +7821,16 @@
         <v>3244317</v>
       </c>
       <c r="E278" s="1">
-        <v>-511682</v>
+        <v>2181957</v>
       </c>
       <c r="F278" s="1">
-        <v>2181957</v>
+        <v>-2693639</v>
       </c>
       <c r="G278" s="1">
-        <v>2693639</v>
-      </c>
-      <c r="H278" s="1">
         <v>3270141</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -8678,19 +7844,16 @@
         <v>3246381</v>
       </c>
       <c r="E279" s="1">
-        <v>-489370</v>
+        <v>2221936</v>
       </c>
       <c r="F279" s="1">
-        <v>2221936</v>
+        <v>-2711306</v>
       </c>
       <c r="G279" s="1">
-        <v>2711306</v>
-      </c>
-      <c r="H279" s="1">
         <v>3289566</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -8704,19 +7867,16 @@
         <v>3261571</v>
       </c>
       <c r="E280" s="1">
-        <v>-481229</v>
+        <v>2270000</v>
       </c>
       <c r="F280" s="1">
-        <v>2270000</v>
+        <v>-2751229</v>
       </c>
       <c r="G280" s="1">
-        <v>2751229</v>
-      </c>
-      <c r="H280" s="1">
         <v>3315171</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -8730,19 +7890,16 @@
         <v>3360952</v>
       </c>
       <c r="E281" s="1">
-        <v>-530806</v>
+        <v>2268339</v>
       </c>
       <c r="F281" s="1">
-        <v>2268339</v>
+        <v>-2799145</v>
       </c>
       <c r="G281" s="1">
-        <v>2799145</v>
-      </c>
-      <c r="H281" s="1">
         <v>3337245</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -8756,19 +7913,16 @@
         <v>3363101</v>
       </c>
       <c r="E282" s="1">
-        <v>-533420</v>
+        <v>2339728</v>
       </c>
       <c r="F282" s="1">
-        <v>2339728</v>
+        <v>-2873148</v>
       </c>
       <c r="G282" s="1">
-        <v>2873148</v>
-      </c>
-      <c r="H282" s="1">
         <v>3353096</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -8782,19 +7936,16 @@
         <v>3432968</v>
       </c>
       <c r="E283" s="1">
-        <v>-553499</v>
+        <v>2349681</v>
       </c>
       <c r="F283" s="1">
-        <v>2349681</v>
+        <v>-2903180</v>
       </c>
       <c r="G283" s="1">
-        <v>2903180</v>
-      </c>
-      <c r="H283" s="1">
         <v>3370444</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -8808,19 +7959,16 @@
         <v>3500142</v>
       </c>
       <c r="E284" s="1">
-        <v>-531498</v>
+        <v>2384524</v>
       </c>
       <c r="F284" s="1">
-        <v>2384524</v>
+        <v>-2916022</v>
       </c>
       <c r="G284" s="1">
-        <v>2916022</v>
-      </c>
-      <c r="H284" s="1">
         <v>3398886</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -8834,19 +7982,16 @@
         <v>3574446</v>
       </c>
       <c r="E285" s="1">
-        <v>-554897</v>
+        <v>2479107</v>
       </c>
       <c r="F285" s="1">
-        <v>2479107</v>
+        <v>-3034004</v>
       </c>
       <c r="G285" s="1">
-        <v>3034004</v>
-      </c>
-      <c r="H285" s="1">
         <v>3466137</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -8860,19 +8005,16 @@
         <v>3645635</v>
       </c>
       <c r="E286" s="1">
-        <v>-576031</v>
+        <v>2517268</v>
       </c>
       <c r="F286" s="1">
-        <v>2517268</v>
+        <v>-3093299</v>
       </c>
       <c r="G286" s="1">
-        <v>3093299</v>
-      </c>
-      <c r="H286" s="1">
         <v>3513876</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -8886,19 +8028,16 @@
         <v>3662727</v>
       </c>
       <c r="E287" s="1">
-        <v>-543823</v>
+        <v>2562172</v>
       </c>
       <c r="F287" s="1">
-        <v>2562172</v>
+        <v>-3105995</v>
       </c>
       <c r="G287" s="1">
-        <v>3105995</v>
-      </c>
-      <c r="H287" s="1">
         <v>3570715</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -8912,19 +8051,16 @@
         <v>3788692</v>
       </c>
       <c r="E288" s="1">
-        <v>-618246</v>
+        <v>2535501</v>
       </c>
       <c r="F288" s="1">
-        <v>2535501</v>
+        <v>-3153747</v>
       </c>
       <c r="G288" s="1">
-        <v>3153747</v>
-      </c>
-      <c r="H288" s="1">
         <v>3626086</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -8938,19 +8074,16 @@
         <v>3802028</v>
       </c>
       <c r="E289" s="1">
-        <v>-634207</v>
+        <v>2537415</v>
       </c>
       <c r="F289" s="1">
-        <v>2537415</v>
+        <v>-3171622</v>
       </c>
       <c r="G289" s="1">
-        <v>3171622</v>
-      </c>
-      <c r="H289" s="1">
         <v>3650847</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -8964,19 +8097,16 @@
         <v>3850770</v>
       </c>
       <c r="E290" s="1">
-        <v>-592294</v>
+        <v>2540244</v>
       </c>
       <c r="F290" s="1">
-        <v>2540244</v>
+        <v>-3132539</v>
       </c>
       <c r="G290" s="1">
-        <v>3132539</v>
-      </c>
-      <c r="H290" s="1">
         <v>3702934</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -8990,19 +8120,16 @@
         <v>3903996</v>
       </c>
       <c r="E291" s="1">
-        <v>-617962</v>
+        <v>2547448</v>
       </c>
       <c r="F291" s="1">
-        <v>2547448</v>
+        <v>-3165410</v>
       </c>
       <c r="G291" s="1">
-        <v>3165410</v>
-      </c>
-      <c r="H291" s="1">
         <v>3761243</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -9016,19 +8143,16 @@
         <v>3939599</v>
       </c>
       <c r="E292" s="1">
-        <v>-585547</v>
+        <v>2532405</v>
       </c>
       <c r="F292" s="1">
-        <v>2532405</v>
+        <v>-3117952</v>
       </c>
       <c r="G292" s="1">
-        <v>3117952</v>
-      </c>
-      <c r="H292" s="1">
         <v>3814837</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -9042,19 +8166,16 @@
         <v>3880570</v>
       </c>
       <c r="E293" s="1">
-        <v>-513359</v>
+        <v>2537466</v>
       </c>
       <c r="F293" s="1">
-        <v>2537466</v>
+        <v>-3050824</v>
       </c>
       <c r="G293" s="1">
-        <v>3050824</v>
-      </c>
-      <c r="H293" s="1">
         <v>3864968</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -9068,19 +8189,16 @@
         <v>3801997</v>
       </c>
       <c r="E294" s="1">
-        <v>-513578</v>
+        <v>2416181</v>
       </c>
       <c r="F294" s="1">
-        <v>2416181</v>
+        <v>-2929759</v>
       </c>
       <c r="G294" s="1">
-        <v>2929759</v>
-      </c>
-      <c r="H294" s="1">
         <v>3943012</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -9094,19 +8212,16 @@
         <v>3270358</v>
       </c>
       <c r="E295" s="1">
-        <v>-536525</v>
+        <v>1814401</v>
       </c>
       <c r="F295" s="1">
-        <v>1814401</v>
+        <v>-2350926</v>
       </c>
       <c r="G295" s="1">
-        <v>2350926</v>
-      </c>
-      <c r="H295" s="1">
         <v>4025974</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -9120,19 +8235,16 @@
         <v>3901347</v>
       </c>
       <c r="E296" s="1">
-        <v>-696399</v>
+        <v>2105083</v>
       </c>
       <c r="F296" s="1">
-        <v>2105083</v>
+        <v>-2801482</v>
       </c>
       <c r="G296" s="1">
-        <v>2801482</v>
-      </c>
-      <c r="H296" s="1">
         <v>4001570</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -9146,19 +8258,16 @@
         <v>4046349</v>
       </c>
       <c r="E297" s="1">
-        <v>-758308</v>
+        <v>2268891</v>
       </c>
       <c r="F297" s="1">
-        <v>2268891</v>
+        <v>-3027199</v>
       </c>
       <c r="G297" s="1">
-        <v>3027199</v>
-      </c>
-      <c r="H297" s="1">
         <v>4027995</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -9172,19 +8281,16 @@
         <v>4045497</v>
       </c>
       <c r="E298" s="1">
-        <v>-795758</v>
+        <v>2381224</v>
       </c>
       <c r="F298" s="1">
-        <v>2381224</v>
+        <v>-3176982</v>
       </c>
       <c r="G298" s="1">
-        <v>3176982</v>
-      </c>
-      <c r="H298" s="1">
         <v>4147626</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -9198,19 +8304,16 @@
         <v>4017581</v>
       </c>
       <c r="E299" s="1">
-        <v>-835082</v>
+        <v>2505032</v>
       </c>
       <c r="F299" s="1">
-        <v>2505032</v>
+        <v>-3340114</v>
       </c>
       <c r="G299" s="1">
-        <v>3340114</v>
-      </c>
-      <c r="H299" s="1">
         <v>4170015</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -9224,19 +8327,16 @@
         <v>4232825</v>
       </c>
       <c r="E300" s="1">
-        <v>-888680</v>
+        <v>2570103</v>
       </c>
       <c r="F300" s="1">
-        <v>2570103</v>
+        <v>-3458783</v>
       </c>
       <c r="G300" s="1">
-        <v>3458783</v>
-      </c>
-      <c r="H300" s="1">
         <v>4213970</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -9250,19 +8350,16 @@
         <v>4599184</v>
       </c>
       <c r="E301" s="1">
-        <v>-920596</v>
+        <v>2765360</v>
       </c>
       <c r="F301" s="1">
-        <v>2765360</v>
+        <v>-3685956</v>
       </c>
       <c r="G301" s="1">
-        <v>3685956</v>
-      </c>
-      <c r="H301" s="1">
         <v>4282318</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -9276,19 +8373,16 @@
         <v>4784820</v>
       </c>
       <c r="E302" s="1">
-        <v>-1077044</v>
+        <v>2848698</v>
       </c>
       <c r="F302" s="1">
-        <v>2848698</v>
+        <v>-3925742</v>
       </c>
       <c r="G302" s="1">
-        <v>3925742</v>
-      </c>
-      <c r="H302" s="1">
         <v>4332610</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -9302,19 +8396,16 @@
         <v>4786542</v>
       </c>
       <c r="E303" s="1">
-        <v>-1022113</v>
+        <v>3071551</v>
       </c>
       <c r="F303" s="1">
-        <v>3071551</v>
+        <v>-4093663</v>
       </c>
       <c r="G303" s="1">
-        <v>4093663</v>
-      </c>
-      <c r="H303" s="1">
         <v>4437609</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -9328,19 +8419,16 @@
         <v>4801624</v>
       </c>
       <c r="E304" s="1">
-        <v>-885897</v>
+        <v>3102550</v>
       </c>
       <c r="F304" s="1">
-        <v>3102550</v>
+        <v>-3988447</v>
       </c>
       <c r="G304" s="1">
-        <v>3988447</v>
-      </c>
-      <c r="H304" s="1">
         <v>4480050</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -9354,19 +8442,16 @@
         <v>4911900</v>
       </c>
       <c r="E305" s="1">
-        <v>-850685</v>
+        <v>3046718</v>
       </c>
       <c r="F305" s="1">
-        <v>3046718</v>
+        <v>-3897402</v>
       </c>
       <c r="G305" s="1">
-        <v>3897402</v>
-      </c>
-      <c r="H305" s="1">
         <v>4564792</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -9380,19 +8465,16 @@
         <v>4847210</v>
       </c>
       <c r="E306" s="1">
-        <v>-813648</v>
+        <v>3060562</v>
       </c>
       <c r="F306" s="1">
-        <v>3060562</v>
+        <v>-3874210</v>
       </c>
       <c r="G306" s="1">
-        <v>3874210</v>
-      </c>
-      <c r="H306" s="1">
         <v>4624586</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -9406,19 +8488,16 @@
         <v>4925665</v>
       </c>
       <c r="E307" s="1">
-        <v>-803479</v>
+        <v>2995524</v>
       </c>
       <c r="F307" s="1">
-        <v>2995524</v>
+        <v>-3799003</v>
       </c>
       <c r="G307" s="1">
-        <v>3799003</v>
-      </c>
-      <c r="H307" s="1">
         <v>4645905</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -9432,19 +8511,16 @@
         <v>5063353</v>
       </c>
       <c r="E308" s="1">
-        <v>-781091</v>
+        <v>3062041</v>
       </c>
       <c r="F308" s="1">
-        <v>3062041</v>
+        <v>-3843132</v>
       </c>
       <c r="G308" s="1">
-        <v>3843132</v>
-      </c>
-      <c r="H308" s="1">
         <v>4756448</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -9458,19 +8534,16 @@
         <v>5102814</v>
       </c>
       <c r="E309" s="1">
-        <v>-791152</v>
+        <v>3091748</v>
       </c>
       <c r="F309" s="1">
-        <v>3091748</v>
+        <v>-3882899</v>
       </c>
       <c r="G309" s="1">
-        <v>3882899</v>
-      </c>
-      <c r="H309" s="1">
         <v>4815150</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -9484,19 +8557,16 @@
         <v>5159903</v>
       </c>
       <c r="E310" s="1">
-        <v>-841569</v>
+        <v>3125421</v>
       </c>
       <c r="F310" s="1">
-        <v>3125421</v>
+        <v>-3966989</v>
       </c>
       <c r="G310" s="1">
-        <v>3966989</v>
-      </c>
-      <c r="H310" s="1">
         <v>4880960</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -9510,19 +8580,16 @@
         <v>5297844</v>
       </c>
       <c r="E311" s="1">
-        <v>-906870</v>
+        <v>3154321</v>
       </c>
       <c r="F311" s="1">
-        <v>3154321</v>
+        <v>-4061192</v>
       </c>
       <c r="G311" s="1">
-        <v>4061192</v>
-      </c>
-      <c r="H311" s="1">
         <v>4943041</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -9536,19 +8603,16 @@
         <v>5345165</v>
       </c>
       <c r="E312" s="1">
-        <v>-943684</v>
+        <v>3220292</v>
       </c>
       <c r="F312" s="1">
-        <v>3220292</v>
+        <v>-4163975</v>
       </c>
       <c r="G312" s="1">
-        <v>4163975</v>
-      </c>
-      <c r="H312" s="1">
         <v>5035008</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -9562,15 +8626,12 @@
         <v>5288763</v>
       </c>
       <c r="E313" s="1">
-        <v>-920084</v>
+        <v>3220929</v>
       </c>
       <c r="F313" s="1">
-        <v>3220929</v>
+        <v>-4141013</v>
       </c>
       <c r="G313" s="1">
-        <v>4141013</v>
-      </c>
-      <c r="H313" s="1">
         <v>5099730</v>
       </c>
     </row>

--- a/course_materials/GDP.xlsx
+++ b/course_materials/GDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlang/Cursor/macroeconomics-course-website/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B5C1A-6A12-7D42-A7AE-6DA6B5CC541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116A207-E4A5-2E4F-BC55-5C96D176E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1540" windowWidth="29120" windowHeight="18880" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
+    <workbookView xWindow="32260" yWindow="1520" windowWidth="27740" windowHeight="18880" activeTab="1" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Nominal GDP" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="340">
   <si>
     <t>1947Q1</t>
   </si>
@@ -1055,6 +1055,9 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -1430,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E0E7F-AFBF-8043-8218-597DCDC29649}">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -8642,10 +8645,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF1A7A-728D-274C-90DB-35E537798C7A}">
-  <dimension ref="A1:AB313"/>
+  <dimension ref="A1:AB314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC314" sqref="AC314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35568,6 +35572,92 @@
         <v>-34970</v>
       </c>
     </row>
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>339</v>
+      </c>
+      <c r="B314" s="1">
+        <v>23526100</v>
+      </c>
+      <c r="C314" s="1">
+        <v>16345600</v>
+      </c>
+      <c r="D314" s="1">
+        <v>5567400</v>
+      </c>
+      <c r="E314" s="1">
+        <v>2102400</v>
+      </c>
+      <c r="F314" s="1">
+        <v>3476200</v>
+      </c>
+      <c r="G314" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="H314" s="1">
+        <v>4533700</v>
+      </c>
+      <c r="I314" s="1">
+        <v>4346800</v>
+      </c>
+      <c r="J314" s="1">
+        <v>3595500</v>
+      </c>
+      <c r="K314" s="1">
+        <v>677000</v>
+      </c>
+      <c r="L314" s="1">
+        <v>1399600</v>
+      </c>
+      <c r="M314" s="1">
+        <v>1522500</v>
+      </c>
+      <c r="N314" s="1">
+        <v>799600</v>
+      </c>
+      <c r="O314" s="1">
+        <v>140100</v>
+      </c>
+      <c r="P314" s="1">
+        <v>-1374300</v>
+      </c>
+      <c r="Q314" s="1">
+        <v>2648800</v>
+      </c>
+      <c r="R314" s="1">
+        <v>1752000</v>
+      </c>
+      <c r="S314" s="1">
+        <v>899600</v>
+      </c>
+      <c r="T314" s="1">
+        <v>4023100</v>
+      </c>
+      <c r="U314" s="1">
+        <v>3311500</v>
+      </c>
+      <c r="V314" s="1">
+        <v>714500</v>
+      </c>
+      <c r="W314" s="1">
+        <v>3981700</v>
+      </c>
+      <c r="X314" s="1">
+        <v>1515100</v>
+      </c>
+      <c r="Y314" s="1">
+        <v>858000</v>
+      </c>
+      <c r="Z314" s="1">
+        <v>657000</v>
+      </c>
+      <c r="AA314" s="1">
+        <v>2465300</v>
+      </c>
+      <c r="AB314" s="1">
+        <v>-117600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/course_materials/GDP.xlsx
+++ b/course_materials/GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlang/Cursor/macroeconomics-course-website/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116A207-E4A5-2E4F-BC55-5C96D176E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F63F37-38B0-304A-980A-D5AC39EEE2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1520" windowWidth="27740" windowHeight="18880" activeTab="1" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
+    <workbookView xWindow="10800" yWindow="760" windowWidth="18420" windowHeight="18880" xr2:uid="{32AFCFF0-4E69-B847-A58D-E17547420AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Nominal GDP" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="340">
   <si>
     <t>1947Q1</t>
   </si>
@@ -1063,10 +1063,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1431,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E0E7F-AFBF-8043-8218-597DCDC29649}">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8638,7 +8644,31 @@
         <v>5099730</v>
       </c>
     </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>339</v>
+      </c>
+      <c r="B314" s="1">
+        <v>29977500</v>
+      </c>
+      <c r="C314" s="1">
+        <v>20526300</v>
+      </c>
+      <c r="D314" s="1">
+        <v>5573200</v>
+      </c>
+      <c r="E314" s="1">
+        <v>3276400</v>
+      </c>
+      <c r="F314" s="1">
+        <v>-4538700</v>
+      </c>
+      <c r="G314" s="1">
+        <v>3941800</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8647,7 +8677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF1A7A-728D-274C-90DB-35E537798C7A}">
   <dimension ref="A1:AB314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC314" sqref="AC314"/>
     </sheetView>
